--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-0.1/percents/scores-25.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-0.1/percents/scores-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="87">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,148 +52,85 @@
     <t>terrifying</t>
   </si>
   <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
     <t>evil</t>
   </si>
   <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
     <t>worse</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>vicious</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>annoying</t>
-  </si>
-  <si>
     <t>destroying</t>
   </si>
   <si>
-    <t>frustrating</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>harmful</t>
-  </si>
-  <si>
-    <t>destructive</t>
-  </si>
-  <si>
-    <t>sucks</t>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>shocked</t>
   </si>
   <si>
     <t>creepy</t>
   </si>
   <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>fucked</t>
+    <t>ass</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>afraid</t>
   </si>
   <si>
     <t>weird</t>
   </si>
   <si>
+    <t>dumb</t>
+  </si>
+  <si>
     <t>false</t>
   </si>
   <si>
-    <t>sick</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>confused</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>terribly</t>
-  </si>
-  <si>
-    <t>toxic</t>
-  </si>
-  <si>
-    <t>angry</t>
-  </si>
-  <si>
-    <t>problematic</t>
-  </si>
-  <si>
-    <t>disgusted</t>
-  </si>
-  <si>
-    <t>painful</t>
-  </si>
-  <si>
-    <t>badly</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>harsh</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>lonely</t>
-  </si>
-  <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>racist</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>afraid</t>
-  </si>
-  <si>
-    <t>dumb</t>
+    <t>sad</t>
   </si>
   <si>
     <t>0.95-negative</t>
@@ -205,12 +142,12 @@
     <t>good</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
@@ -235,157 +172,88 @@
     <t>powerful</t>
   </si>
   <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>fascinating</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>ab</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>accurate</t>
-  </si>
-  <si>
-    <t>loving</t>
-  </si>
-  <si>
-    <t>greatest</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>classic</t>
-  </si>
-  <si>
-    <t>engagement</t>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>really</t>
   </si>
   <si>
     <t>incredible</t>
   </si>
   <si>
-    <t>necessary</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>masterpiece</t>
-  </si>
-  <si>
-    <t>dil</t>
-  </si>
-  <si>
-    <t>decent</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>hear</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>series</t>
-  </si>
-  <si>
-    <t>hooked</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>since</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>advanced</t>
-  </si>
-  <si>
     <t>relevant</t>
   </si>
   <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>available</t>
+    <t>op</t>
+  </si>
+  <si>
+    <t>essential</t>
   </si>
   <si>
     <t>smart</t>
   </si>
   <si>
+    <t>year</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>insight</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>online</t>
+  </si>
+  <si>
+    <t>opt</t>
+  </si>
+  <si>
+    <t>right</t>
   </si>
   <si>
     <t>big</t>
   </si>
   <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>real</t>
+    <t>f</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
     <t>irony</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>twitter</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>…</t>
+    <t>[UNK]</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>media</t>
   </si>
   <si>
     <t>0.95-positive</t>
@@ -764,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS65"/>
+  <dimension ref="A1:BS42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -772,28 +640,28 @@
   <sheetData>
     <row r="1" spans="1:71">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="S1" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="AB1" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="AK1" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="AT1" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="BC1" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="BL1" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -995,13 +863,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03884951825231085</v>
+        <v>0.03853775289526476</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1013,13 +881,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="K3">
-        <v>0.1095076753244173</v>
+        <v>0.01523146261932468</v>
       </c>
       <c r="L3">
         <v>34</v>
@@ -1043,13 +911,13 @@
         <v>8</v>
       </c>
       <c r="T3">
-        <v>0.04609707782423719</v>
+        <v>0.0457086472401619</v>
       </c>
       <c r="U3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="V3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -1061,13 +929,13 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AC3">
-        <v>0.05397550087968633</v>
+        <v>0.1242005273617949</v>
       </c>
       <c r="AD3">
         <v>34</v>
@@ -1091,13 +959,13 @@
         <v>8</v>
       </c>
       <c r="AL3">
-        <v>0.05668966489089877</v>
+        <v>0.05618918512885775</v>
       </c>
       <c r="AM3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AN3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -1109,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AU3">
-        <v>0.03994390348064882</v>
+        <v>0.1005320435374554</v>
       </c>
       <c r="AV3">
         <v>34</v>
@@ -1139,13 +1007,13 @@
         <v>8</v>
       </c>
       <c r="BD3">
-        <v>0.0736378041975573</v>
+        <v>0.0729580457507711</v>
       </c>
       <c r="BE3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="BF3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="BG3">
         <v>0</v>
@@ -1157,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="BM3">
-        <v>0.03354603166255399</v>
+        <v>0.08624776700548054</v>
       </c>
       <c r="BN3">
         <v>34</v>
@@ -1189,13 +1057,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01152210719569199</v>
+        <v>0.01212394809886921</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1207,13 +1075,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="K4">
-        <v>0.09392197852004643</v>
+        <v>0.01302396477295506</v>
       </c>
       <c r="L4">
         <v>29</v>
@@ -1237,13 +1105,13 @@
         <v>9</v>
       </c>
       <c r="T4">
-        <v>0.01365495846959777</v>
+        <v>0.01437887692641885</v>
       </c>
       <c r="U4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1255,13 +1123,13 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AC4">
-        <v>0.04742134939298554</v>
+        <v>0.1063126091685405</v>
       </c>
       <c r="AD4">
         <v>29</v>
@@ -1285,13 +1153,13 @@
         <v>9</v>
       </c>
       <c r="AL4">
-        <v>0.01677220263915239</v>
+        <v>0.01767454213591449</v>
       </c>
       <c r="AM4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -1303,13 +1171,13 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AU4">
-        <v>0.03567179855624922</v>
+        <v>0.08652545227359426</v>
       </c>
       <c r="AV4">
         <v>29</v>
@@ -1333,13 +1201,13 @@
         <v>9</v>
       </c>
       <c r="BD4">
-        <v>0.02175979331043978</v>
+        <v>0.02294760647110751</v>
       </c>
       <c r="BE4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BF4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BG4">
         <v>0</v>
@@ -1351,13 +1219,13 @@
         <v>0</v>
       </c>
       <c r="BJ4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="BM4">
-        <v>0.03031445270061742</v>
+        <v>0.07458361337226475</v>
       </c>
       <c r="BN4">
         <v>29</v>
@@ -1383,13 +1251,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.008496808929746124</v>
+        <v>0.009927199178547515</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1401,19 +1269,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="K5">
-        <v>0.07872180853913319</v>
+        <v>0.01129548888721791</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1425,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T5">
-        <v>0.00993387892745027</v>
+        <v>0.01166036893760687</v>
       </c>
       <c r="U5">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="V5">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1449,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AC5">
-        <v>0.04148930990854204</v>
+        <v>0.09316956500951247</v>
       </c>
       <c r="AD5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF5">
         <v>1</v>
@@ -1473,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AL5">
-        <v>0.01203421200101787</v>
+        <v>0.01419346320084746</v>
       </c>
       <c r="AM5">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AN5">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -1497,19 +1365,19 @@
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AU5">
-        <v>0.0320815848164042</v>
+        <v>0.07685784464611448</v>
       </c>
       <c r="AV5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX5">
         <v>1</v>
@@ -1521,19 +1389,19 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BC5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="BD5">
-        <v>0.01539474491872604</v>
+        <v>0.01824641402203241</v>
       </c>
       <c r="BE5">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BF5">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BG5">
         <v>0</v>
@@ -1545,19 +1413,19 @@
         <v>0</v>
       </c>
       <c r="BJ5">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="BM5">
-        <v>0.02779202194428955</v>
+        <v>0.0670134825774544</v>
       </c>
       <c r="BN5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BO5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BP5">
         <v>1</v>
@@ -1569,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -1577,7 +1445,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.005973280531087635</v>
+        <v>0.006059404022629225</v>
       </c>
       <c r="C6">
         <v>13</v>
@@ -1598,10 +1466,10 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="K6">
-        <v>0.07863001643830994</v>
+        <v>0.01087043748949842</v>
       </c>
       <c r="L6">
         <v>24</v>
@@ -1619,13 +1487,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="T6">
-        <v>0.007074908080475595</v>
+        <v>0.007177230835883873</v>
       </c>
       <c r="U6">
         <v>13</v>
@@ -1646,10 +1514,10 @@
         <v>1</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="AC6">
-        <v>0.04134118800324268</v>
+        <v>0.09010367031138784</v>
       </c>
       <c r="AD6">
         <v>24</v>
@@ -1667,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AL6">
-        <v>0.008684979114196462</v>
+        <v>0.008810977716794517</v>
       </c>
       <c r="AM6">
         <v>13</v>
@@ -1694,10 +1562,10 @@
         <v>1</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="AU6">
-        <v>0.03191922977246264</v>
+        <v>0.07473057149300655</v>
       </c>
       <c r="AV6">
         <v>24</v>
@@ -1715,13 +1583,13 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BC6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="BD6">
-        <v>0.01126109276814985</v>
+        <v>0.01142497272625154</v>
       </c>
       <c r="BE6">
         <v>13</v>
@@ -1742,10 +1610,10 @@
         <v>1</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="BM6">
-        <v>0.02762317713343033</v>
+        <v>0.06545268126966594</v>
       </c>
       <c r="BN6">
         <v>24</v>
@@ -1763,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -1771,13 +1639,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.00469218733155737</v>
+        <v>0.003885785343555949</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1789,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="K7">
-        <v>0.04808280911516626</v>
+        <v>0.00652997257411519</v>
       </c>
       <c r="L7">
         <v>14</v>
@@ -1819,13 +1687,13 @@
         <v>12</v>
       </c>
       <c r="T7">
-        <v>0.005553609906033405</v>
+        <v>0.004568591493001864</v>
       </c>
       <c r="U7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="V7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1837,13 +1705,13 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AC7">
-        <v>0.02924011398587672</v>
+        <v>0.05664642443663856</v>
       </c>
       <c r="AD7">
         <v>14</v>
@@ -1867,13 +1735,13 @@
         <v>12</v>
       </c>
       <c r="AL7">
-        <v>0.006812612130267612</v>
+        <v>0.00556653894219205</v>
       </c>
       <c r="AM7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AN7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AO7">
         <v>0</v>
@@ -1885,13 +1753,13 @@
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AU7">
-        <v>0.02447903422246611</v>
+        <v>0.04977165582313801</v>
       </c>
       <c r="AV7">
         <v>14</v>
@@ -1915,13 +1783,13 @@
         <v>12</v>
       </c>
       <c r="BD7">
-        <v>0.008827015689042343</v>
+        <v>0.007163254860896347</v>
       </c>
       <c r="BE7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BF7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BG7">
         <v>0</v>
@@ -1933,13 +1801,13 @@
         <v>0</v>
       </c>
       <c r="BJ7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="BM7">
-        <v>0.02230816392339984</v>
+        <v>0.0456226323074197</v>
       </c>
       <c r="BN7">
         <v>14</v>
@@ -1965,13 +1833,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.003400785331919892</v>
+        <v>0.003029702011314612</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1983,13 +1851,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="K8">
-        <v>0.03059505959865482</v>
+        <v>0.004061328968428718</v>
       </c>
       <c r="L8">
         <v>10</v>
@@ -2013,13 +1881,13 @@
         <v>13</v>
       </c>
       <c r="T8">
-        <v>0.00398334493108196</v>
+        <v>0.003588615417941937</v>
       </c>
       <c r="U8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -2031,13 +1899,13 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="AC8">
-        <v>0.02168322576485844</v>
+        <v>0.03601241713308836</v>
       </c>
       <c r="AD8">
         <v>8</v>
@@ -2061,13 +1929,13 @@
         <v>13</v>
       </c>
       <c r="AL8">
-        <v>0.004834778191395751</v>
+        <v>0.004405488858397259</v>
       </c>
       <c r="AM8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO8">
         <v>0</v>
@@ -2079,13 +1947,13 @@
         <v>0</v>
       </c>
       <c r="AR8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="AU8">
-        <v>0.01969020680458506</v>
+        <v>0.03405906959345906</v>
       </c>
       <c r="AV8">
         <v>8</v>
@@ -2109,13 +1977,13 @@
         <v>13</v>
       </c>
       <c r="BD8">
-        <v>0.006197071407897818</v>
+        <v>0.005712486363125772</v>
       </c>
       <c r="BE8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BF8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BG8">
         <v>0</v>
@@ -2127,13 +1995,13 @@
         <v>0</v>
       </c>
       <c r="BJ8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="BM8">
-        <v>0.01878146637566312</v>
+        <v>0.03288019575319964</v>
       </c>
       <c r="BN8">
         <v>8</v>
@@ -2159,7 +2027,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.002986640265543817</v>
+        <v>0.003027131984509233</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -2177,13 +2045,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="K9">
-        <v>0.02957090051963357</v>
+        <v>0.003907703437247595</v>
       </c>
       <c r="L9">
         <v>8</v>
@@ -2207,7 +2075,7 @@
         <v>14</v>
       </c>
       <c r="T9">
-        <v>0.003537454040237798</v>
+        <v>0.003576407790616384</v>
       </c>
       <c r="U9">
         <v>6</v>
@@ -2225,13 +2093,13 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="AC9">
-        <v>0.02053236712524158</v>
+        <v>0.03286657103800652</v>
       </c>
       <c r="AD9">
         <v>7</v>
@@ -2255,7 +2123,7 @@
         <v>14</v>
       </c>
       <c r="AL9">
-        <v>0.004342489557098231</v>
+        <v>0.004379195507234528</v>
       </c>
       <c r="AM9">
         <v>6</v>
@@ -2273,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="AU9">
-        <v>0.01901112926716203</v>
+        <v>0.03182647689352858</v>
       </c>
       <c r="AV9">
         <v>7</v>
@@ -2303,7 +2171,7 @@
         <v>14</v>
       </c>
       <c r="BD9">
-        <v>0.005630546384074924</v>
+        <v>0.00566365585382356</v>
       </c>
       <c r="BE9">
         <v>6</v>
@@ -2321,13 +2189,13 @@
         <v>0</v>
       </c>
       <c r="BJ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="BM9">
-        <v>0.01831750297900375</v>
+        <v>0.03119876484871513</v>
       </c>
       <c r="BN9">
         <v>7</v>
@@ -2353,7 +2221,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.002984063065517014</v>
+        <v>0.003016851877287714</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -2371,13 +2239,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="K10">
-        <v>0.0265528966276485</v>
+        <v>0.003480082012722722</v>
       </c>
       <c r="L10">
         <v>7</v>
@@ -2401,7 +2269,7 @@
         <v>15</v>
       </c>
       <c r="T10">
-        <v>0.003525212340110484</v>
+        <v>0.003527577281314172</v>
       </c>
       <c r="U10">
         <v>6</v>
@@ -2419,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="AC10">
-        <v>0.01929263534244511</v>
+        <v>0.02948087075205297</v>
       </c>
       <c r="AD10">
         <v>6</v>
@@ -2449,7 +2317,7 @@
         <v>15</v>
       </c>
       <c r="AL10">
-        <v>0.004316122818362478</v>
+        <v>0.00427402210258361</v>
       </c>
       <c r="AM10">
         <v>6</v>
@@ -2467,13 +2335,13 @@
         <v>0</v>
       </c>
       <c r="AR10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="AU10">
-        <v>0.01823463870337407</v>
+        <v>0.02927792555313046</v>
       </c>
       <c r="AV10">
         <v>6</v>
@@ -2497,7 +2365,7 @@
         <v>15</v>
       </c>
       <c r="BD10">
-        <v>0.005581579583565669</v>
+        <v>0.005468333816614711</v>
       </c>
       <c r="BE10">
         <v>6</v>
@@ -2515,13 +2383,13 @@
         <v>0</v>
       </c>
       <c r="BJ10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="BM10">
-        <v>0.01775223269582886</v>
+        <v>0.02915544515414248</v>
       </c>
       <c r="BN10">
         <v>6</v>
@@ -2547,7 +2415,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.002559609199033729</v>
+        <v>0.002596520291583185</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -2568,10 +2436,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="K11">
-        <v>0.02347981747516948</v>
+        <v>0.003044750507781709</v>
       </c>
       <c r="L11">
         <v>6</v>
@@ -2595,7 +2463,7 @@
         <v>16</v>
       </c>
       <c r="T11">
-        <v>0.003030354648757067</v>
+        <v>0.003074212125760866</v>
       </c>
       <c r="U11">
         <v>5</v>
@@ -2616,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="AC11">
-        <v>0.01929263534244511</v>
+        <v>0.02948087075205297</v>
       </c>
       <c r="AD11">
         <v>6</v>
@@ -2643,7 +2511,7 @@
         <v>16</v>
       </c>
       <c r="AL11">
-        <v>0.003718367229121948</v>
+        <v>0.003772377114174403</v>
       </c>
       <c r="AM11">
         <v>5</v>
@@ -2664,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="AU11">
-        <v>0.01823463870337407</v>
+        <v>0.02927792555313046</v>
       </c>
       <c r="AV11">
         <v>6</v>
@@ -2691,7 +2559,7 @@
         <v>16</v>
       </c>
       <c r="BD11">
-        <v>0.004819187357705756</v>
+        <v>0.004889441095636059</v>
       </c>
       <c r="BE11">
         <v>5</v>
@@ -2712,10 +2580,10 @@
         <v>0</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="BM11">
-        <v>0.01775223269582886</v>
+        <v>0.02915544515414248</v>
       </c>
       <c r="BN11">
         <v>6</v>
@@ -2741,13 +2609,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.00213257813252364</v>
+        <v>0.002578530103945527</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2759,13 +2627,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="K12">
-        <v>0.02347981747516948</v>
+        <v>0.003044750507781709</v>
       </c>
       <c r="L12">
         <v>6</v>
@@ -2789,13 +2657,13 @@
         <v>17</v>
       </c>
       <c r="T12">
-        <v>0.002523255257276337</v>
+        <v>0.002988758734481995</v>
       </c>
       <c r="U12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W12">
         <v>0</v>
@@ -2807,19 +2675,19 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="AC12">
-        <v>0.01681317177685218</v>
+        <v>0.02047737795392802</v>
       </c>
       <c r="AD12">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE12">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AF12">
         <v>1</v>
@@ -2831,19 +2699,19 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="AK12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AL12">
-        <v>0.003094244901145664</v>
+        <v>0.003588323656035295</v>
       </c>
       <c r="AM12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO12">
         <v>0</v>
@@ -2855,19 +2723,19 @@
         <v>0</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="AU12">
-        <v>0.01668165757579814</v>
+        <v>0.02152695198511353</v>
       </c>
       <c r="AV12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX12">
         <v>1</v>
@@ -2879,19 +2747,19 @@
         <v>0</v>
       </c>
       <c r="BA12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="BD12">
-        <v>0.004007828331336587</v>
+        <v>0.004547627530520576</v>
       </c>
       <c r="BE12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BF12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG12">
         <v>0</v>
@@ -2903,19 +2771,19 @@
         <v>0</v>
       </c>
       <c r="BJ12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="BM12">
-        <v>0.01662169212947907</v>
+        <v>0.0229048564737285</v>
       </c>
       <c r="BN12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BO12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BP12">
         <v>1</v>
@@ -2927,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="BS12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:71">
@@ -2935,13 +2803,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.00213257813252364</v>
+        <v>0.00173015685212033</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2956,16 +2824,16 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="K13">
-        <v>0.01733365917021145</v>
+        <v>0.001736185966153291</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -2977,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T13">
-        <v>0.002523255257276337</v>
+        <v>0.002045405541398727</v>
       </c>
       <c r="U13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -3004,16 +2872,16 @@
         <v>0</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="AC13">
-        <v>0.01589748701474749</v>
+        <v>0.01924381849723512</v>
       </c>
       <c r="AD13">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AE13">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AF13">
         <v>1</v>
@@ -3025,19 +2893,19 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>282</v>
+        <v>1</v>
       </c>
       <c r="AK13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AL13">
-        <v>0.003094244901145664</v>
+        <v>0.002506153625728692</v>
       </c>
       <c r="AM13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -3052,10 +2920,10 @@
         <v>0</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="AU13">
-        <v>0.01584022499443355</v>
+        <v>0.02142163243829099</v>
       </c>
       <c r="AV13">
         <v>3</v>
@@ -3079,13 +2947,13 @@
         <v>18</v>
       </c>
       <c r="BD13">
-        <v>0.004007828331336587</v>
+        <v>0.003243350560656636</v>
       </c>
       <c r="BE13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG13">
         <v>0</v>
@@ -3100,10 +2968,10 @@
         <v>0</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="BM13">
-        <v>0.0159888839219605</v>
+        <v>0.02278422687703245</v>
       </c>
       <c r="BN13">
         <v>3</v>
@@ -3129,7 +2997,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.001705547066013552</v>
+        <v>0.00173015685212033</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -3150,10 +3018,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="K14">
-        <v>0.01422386317740313</v>
+        <v>0.001733615939347912</v>
       </c>
       <c r="L14">
         <v>3</v>
@@ -3177,7 +3045,7 @@
         <v>19</v>
       </c>
       <c r="T14">
-        <v>0.002016155865795607</v>
+        <v>0.002045405541398727</v>
       </c>
       <c r="U14">
         <v>3</v>
@@ -3198,10 +3066,10 @@
         <v>0</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="AC14">
-        <v>0.01551419123193597</v>
+        <v>0.01916386710027789</v>
       </c>
       <c r="AD14">
         <v>3</v>
@@ -3225,7 +3093,7 @@
         <v>19</v>
       </c>
       <c r="AL14">
-        <v>0.00247012257316938</v>
+        <v>0.002506153625728692</v>
       </c>
       <c r="AM14">
         <v>3</v>
@@ -3246,16 +3114,16 @@
         <v>0</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="AU14">
-        <v>0.01580775398564523</v>
+        <v>0.01908372019153796</v>
       </c>
       <c r="AV14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX14">
         <v>1</v>
@@ -3267,13 +3135,13 @@
         <v>0</v>
       </c>
       <c r="BA14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BC14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="BD14">
-        <v>0.003196469304967418</v>
+        <v>0.003243350560656636</v>
       </c>
       <c r="BE14">
         <v>3</v>
@@ -3294,16 +3162,16 @@
         <v>0</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="BM14">
-        <v>0.01595511495978865</v>
+        <v>0.02098216637585189</v>
       </c>
       <c r="BN14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BO14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BP14">
         <v>1</v>
@@ -3315,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="BS14">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:71">
@@ -3323,7 +3191,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.001702969865986749</v>
+        <v>0.00172758682531495</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -3344,16 +3212,16 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="K15">
-        <v>0.01420550475723848</v>
+        <v>0.001303424488017658</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -3365,13 +3233,13 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="T15">
-        <v>0.002003914165668294</v>
+        <v>0.002033197914073174</v>
       </c>
       <c r="U15">
         <v>3</v>
@@ -3392,16 +3260,16 @@
         <v>1</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="AC15">
-        <v>0.0154845668508761</v>
+        <v>0.01593806960823881</v>
       </c>
       <c r="AD15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF15">
         <v>1</v>
@@ -3413,13 +3281,13 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="AL15">
-        <v>0.002443755834433628</v>
+        <v>0.002479860274565962</v>
       </c>
       <c r="AM15">
         <v>3</v>
@@ -3440,10 +3308,10 @@
         <v>1</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="AU15">
-        <v>0.0151286764482222</v>
+        <v>0.01908372019153796</v>
       </c>
       <c r="AV15">
         <v>2</v>
@@ -3467,7 +3335,7 @@
         <v>20</v>
       </c>
       <c r="BD15">
-        <v>0.003147502504458164</v>
+        <v>0.003194520051354423</v>
       </c>
       <c r="BE15">
         <v>3</v>
@@ -3488,10 +3356,10 @@
         <v>1</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="BM15">
-        <v>0.01549115156312929</v>
+        <v>0.02098216637585189</v>
       </c>
       <c r="BN15">
         <v>2</v>
@@ -3517,7 +3385,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.001682352265772326</v>
+        <v>0.00172758682531495</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -3535,13 +3403,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="K16">
-        <v>0.01118750086525341</v>
+        <v>0.001303424488017658</v>
       </c>
       <c r="L16">
         <v>2</v>
@@ -3565,7 +3433,7 @@
         <v>21</v>
       </c>
       <c r="T16">
-        <v>0.001905980564649784</v>
+        <v>0.002033197914073174</v>
       </c>
       <c r="U16">
         <v>3</v>
@@ -3583,13 +3451,13 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="AC16">
-        <v>0.01433370821125924</v>
+        <v>0.01593806960823881</v>
       </c>
       <c r="AD16">
         <v>2</v>
@@ -3613,7 +3481,7 @@
         <v>21</v>
       </c>
       <c r="AL16">
-        <v>0.002232821924547608</v>
+        <v>0.002479860274565962</v>
       </c>
       <c r="AM16">
         <v>3</v>
@@ -3631,13 +3499,13 @@
         <v>0</v>
       </c>
       <c r="AR16">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="AU16">
-        <v>0.0151286764482222</v>
+        <v>0.01887308109789286</v>
       </c>
       <c r="AV16">
         <v>2</v>
@@ -3655,13 +3523,13 @@
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="BD16">
-        <v>0.002755768100384126</v>
+        <v>0.003194520051354423</v>
       </c>
       <c r="BE16">
         <v>3</v>
@@ -3679,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="BJ16">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="BM16">
-        <v>0.01549115156312929</v>
+        <v>0.0207409071824598</v>
       </c>
       <c r="BN16">
         <v>2</v>
@@ -3703,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="BS16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:71">
@@ -3711,7 +3579,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.001278515999503463</v>
+        <v>0.001296975132388902</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -3732,10 +3600,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="K17">
-        <v>0.01118750086525341</v>
+        <v>0.001298284434406899</v>
       </c>
       <c r="L17">
         <v>2</v>
@@ -3753,13 +3621,13 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="T17">
-        <v>0.001509056474314877</v>
+        <v>0.001531002249217657</v>
       </c>
       <c r="U17">
         <v>2</v>
@@ -3780,10 +3648,10 @@
         <v>0</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="AC17">
-        <v>0.01433370821125924</v>
+        <v>0.01577816681432434</v>
       </c>
       <c r="AD17">
         <v>2</v>
@@ -3801,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AL17">
-        <v>0.001846000245193097</v>
+        <v>0.001873041881505836</v>
       </c>
       <c r="AM17">
         <v>2</v>
@@ -3828,10 +3696,10 @@
         <v>0</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="AU17">
-        <v>0.0151286764482222</v>
+        <v>0.01866244200424777</v>
       </c>
       <c r="AV17">
         <v>2</v>
@@ -3849,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="BD17">
-        <v>0.00238511027859825</v>
+        <v>0.002420305293166924</v>
       </c>
       <c r="BE17">
         <v>2</v>
@@ -3876,10 +3744,10 @@
         <v>0</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="BM17">
-        <v>0.01549115156312929</v>
+        <v>0.02049964798906771</v>
       </c>
       <c r="BN17">
         <v>2</v>
@@ -3897,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="BS17">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:71">
@@ -3905,7 +3773,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.001278515999503463</v>
+        <v>0.001294405105583523</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -3923,13 +3791,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="K18">
-        <v>0.01118750086525341</v>
+        <v>0.00129314438079614</v>
       </c>
       <c r="L18">
         <v>2</v>
@@ -3947,13 +3815,13 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="T18">
-        <v>0.001509056474314877</v>
+        <v>0.001518794621892104</v>
       </c>
       <c r="U18">
         <v>2</v>
@@ -3971,13 +3839,13 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="AC18">
-        <v>0.01433370821125924</v>
+        <v>0.01561826402040988</v>
       </c>
       <c r="AD18">
         <v>2</v>
@@ -3995,13 +3863,13 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AL18">
-        <v>0.001846000245193097</v>
+        <v>0.001846748530343107</v>
       </c>
       <c r="AM18">
         <v>2</v>
@@ -4019,13 +3887,13 @@
         <v>0</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="AU18">
-        <v>0.0151286764482222</v>
+        <v>0.01866244200424777</v>
       </c>
       <c r="AV18">
         <v>2</v>
@@ -4043,13 +3911,13 @@
         <v>0</v>
       </c>
       <c r="BA18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="BD18">
-        <v>0.00238511027859825</v>
+        <v>0.002371474783864712</v>
       </c>
       <c r="BE18">
         <v>2</v>
@@ -4067,13 +3935,13 @@
         <v>0</v>
       </c>
       <c r="BJ18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="BM18">
-        <v>0.01549115156312929</v>
+        <v>0.02049964798906771</v>
       </c>
       <c r="BN18">
         <v>2</v>
@@ -4091,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="BS18">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:71">
@@ -4099,7 +3967,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.001278515999503463</v>
+        <v>0.001286695025167384</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -4117,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="K19">
-        <v>0.01118750086525341</v>
+        <v>0.00129314438079614</v>
       </c>
       <c r="L19">
         <v>2</v>
@@ -4141,13 +4009,13 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="T19">
-        <v>0.001509056474314877</v>
+        <v>0.001482171739915445</v>
       </c>
       <c r="U19">
         <v>2</v>
@@ -4165,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="AC19">
-        <v>0.01433370821125924</v>
+        <v>0.01561826402040988</v>
       </c>
       <c r="AD19">
         <v>2</v>
@@ -4189,13 +4057,13 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AL19">
-        <v>0.001846000245193097</v>
+        <v>0.001767868476854918</v>
       </c>
       <c r="AM19">
         <v>2</v>
@@ -4213,13 +4081,13 @@
         <v>0</v>
       </c>
       <c r="AR19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="AU19">
-        <v>0.01506373443064558</v>
+        <v>0.01855712245742522</v>
       </c>
       <c r="AV19">
         <v>2</v>
@@ -4237,13 +4105,13 @@
         <v>0</v>
       </c>
       <c r="BA19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="BD19">
-        <v>0.00238511027859825</v>
+        <v>0.002224983255958076</v>
       </c>
       <c r="BE19">
         <v>2</v>
@@ -4261,13 +4129,13 @@
         <v>0</v>
       </c>
       <c r="BJ19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL19" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="BM19">
-        <v>0.01542361363878561</v>
+        <v>0.02037901839237167</v>
       </c>
       <c r="BN19">
         <v>2</v>
@@ -4285,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="BS19">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:71">
@@ -4293,13 +4161,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001278515999503463</v>
+        <v>0.0008637934126574751</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4314,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="K20">
-        <v>0.01115078402492411</v>
+        <v>0.00129057435399076</v>
       </c>
       <c r="L20">
         <v>2</v>
@@ -4335,19 +4203,19 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T20">
-        <v>0.001509056474314877</v>
+        <v>0.001016598957036587</v>
       </c>
       <c r="U20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -4362,10 +4230,10 @@
         <v>0</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="AC20">
-        <v>0.0142744594491395</v>
+        <v>0.01553831262345265</v>
       </c>
       <c r="AD20">
         <v>2</v>
@@ -4383,19 +4251,19 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AK20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AL20">
-        <v>0.001846000245193097</v>
+        <v>0.001239930137282981</v>
       </c>
       <c r="AM20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO20">
         <v>0</v>
@@ -4410,10 +4278,10 @@
         <v>0</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="AU20">
-        <v>0.01477149535155076</v>
+        <v>0.01792520517648994</v>
       </c>
       <c r="AV20">
         <v>2</v>
@@ -4437,13 +4305,13 @@
         <v>25</v>
       </c>
       <c r="BD20">
-        <v>0.00238511027859825</v>
+        <v>0.001597260025677212</v>
       </c>
       <c r="BE20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG20">
         <v>0</v>
@@ -4458,10 +4326,10 @@
         <v>0</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="BM20">
-        <v>0.01511969297923902</v>
+        <v>0.01965524081219539</v>
       </c>
       <c r="BN20">
         <v>2</v>
@@ -4487,13 +4355,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.001278515999503463</v>
+        <v>0.0008637934126574751</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4508,10 +4376,10 @@
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="K21">
-        <v>0.01098555824344228</v>
+        <v>0.001275154193158483</v>
       </c>
       <c r="L21">
         <v>2</v>
@@ -4535,13 +4403,13 @@
         <v>26</v>
       </c>
       <c r="T21">
-        <v>0.001509056474314877</v>
+        <v>0.001016598957036587</v>
       </c>
       <c r="U21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W21">
         <v>0</v>
@@ -4556,10 +4424,10 @@
         <v>0</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="AC21">
-        <v>0.01400784001960067</v>
+        <v>0.01505860424170927</v>
       </c>
       <c r="AD21">
         <v>2</v>
@@ -4583,13 +4451,13 @@
         <v>26</v>
       </c>
       <c r="AL21">
-        <v>0.001846000245193097</v>
+        <v>0.001239930137282981</v>
       </c>
       <c r="AM21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO21">
         <v>0</v>
@@ -4604,16 +4472,16 @@
         <v>0</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="AU21">
-        <v>0.01435218588443424</v>
+        <v>0.01718796834873212</v>
       </c>
       <c r="AV21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX21">
         <v>1</v>
@@ -4625,19 +4493,19 @@
         <v>0</v>
       </c>
       <c r="BA21">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BC21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="BD21">
-        <v>0.00238511027859825</v>
+        <v>0.001597260025677212</v>
       </c>
       <c r="BE21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG21">
         <v>0</v>
@@ -4652,10 +4520,10 @@
         <v>0</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="BM21">
-        <v>0.0149258812799544</v>
+        <v>0.01893884668127925</v>
       </c>
       <c r="BN21">
         <v>1</v>
@@ -4681,13 +4549,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.001278515999503463</v>
+        <v>0.0008612233858520955</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4699,19 +4567,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="K22">
-        <v>0.008114421712774392</v>
+        <v>0.001257164005520826</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -4723,19 +4591,19 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T22">
-        <v>0.001509056474314877</v>
+        <v>0.001004391329711034</v>
       </c>
       <c r="U22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W22">
         <v>0</v>
@@ -4747,19 +4615,19 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="AC22">
-        <v>0.01309397642846278</v>
+        <v>0.01449894446300865</v>
       </c>
       <c r="AD22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF22">
         <v>1</v>
@@ -4771,19 +4639,19 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AK22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AL22">
-        <v>0.001846000245193097</v>
+        <v>0.001213636786120252</v>
       </c>
       <c r="AM22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO22">
         <v>0</v>
@@ -4795,13 +4663,13 @@
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="AU22">
-        <v>0.01435218588443424</v>
+        <v>0.01653516885113983</v>
       </c>
       <c r="AV22">
         <v>1</v>
@@ -4825,13 +4693,13 @@
         <v>27</v>
       </c>
       <c r="BD22">
-        <v>0.00238511027859825</v>
+        <v>0.001548429516375</v>
       </c>
       <c r="BE22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG22">
         <v>0</v>
@@ -4843,13 +4711,13 @@
         <v>0</v>
       </c>
       <c r="BJ22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="BM22">
-        <v>0.0149258812799544</v>
+        <v>0.01893884668127925</v>
       </c>
       <c r="BN22">
         <v>1</v>
@@ -4875,13 +4743,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.001278515999503463</v>
+        <v>0.0008612233858520955</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4893,19 +4761,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K23">
-        <v>0.008114421712774392</v>
+        <v>0.001239173817883169</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -4917,19 +4785,19 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="T23">
-        <v>0.001509056474314877</v>
+        <v>0.001004391329711034</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W23">
         <v>0</v>
@@ -4941,19 +4809,19 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AC23">
-        <v>0.01309397642846278</v>
+        <v>0.01393928468430803</v>
       </c>
       <c r="AD23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF23">
         <v>1</v>
@@ -4965,19 +4833,19 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AK23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AL23">
-        <v>0.001846000245193097</v>
+        <v>0.001213636786120252</v>
       </c>
       <c r="AM23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO23">
         <v>0</v>
@@ -4989,13 +4857,13 @@
         <v>0</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="AU23">
-        <v>0.01435218588443424</v>
+        <v>0.01653516885113983</v>
       </c>
       <c r="AV23">
         <v>1</v>
@@ -5019,13 +4887,13 @@
         <v>28</v>
       </c>
       <c r="BD23">
-        <v>0.00238511027859825</v>
+        <v>0.001548429516375</v>
       </c>
       <c r="BE23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG23">
         <v>0</v>
@@ -5037,19 +4905,19 @@
         <v>0</v>
       </c>
       <c r="BJ23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL23" s="1" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="BM23">
-        <v>0.0149258812799544</v>
+        <v>0.01881083363532306</v>
       </c>
       <c r="BN23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP23">
         <v>1</v>
@@ -5061,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="BS23">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:71">
@@ -5069,13 +4937,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.00127593879947666</v>
+        <v>0.0008612233858520955</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -5090,10 +4958,10 @@
         <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="K24">
-        <v>0.008114421712774392</v>
+        <v>0.0008680929830766456</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -5117,13 +4985,13 @@
         <v>29</v>
       </c>
       <c r="T24">
-        <v>0.001496814774187563</v>
+        <v>0.001004391329711034</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W24">
         <v>0</v>
@@ -5138,10 +5006,10 @@
         <v>1</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="AC24">
-        <v>0.01309397642846278</v>
+        <v>0.01255236932228526</v>
       </c>
       <c r="AD24">
         <v>1</v>
@@ -5165,13 +5033,13 @@
         <v>29</v>
       </c>
       <c r="AL24">
-        <v>0.001819633506457345</v>
+        <v>0.001213636786120252</v>
       </c>
       <c r="AM24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO24">
         <v>0</v>
@@ -5186,16 +5054,16 @@
         <v>1</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AU24">
-        <v>0.01435218588443424</v>
+        <v>0.01645073152097429</v>
       </c>
       <c r="AV24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX24">
         <v>1</v>
@@ -5207,19 +5075,19 @@
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BC24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="BD24">
-        <v>0.002336143478088996</v>
+        <v>0.001548429516375</v>
       </c>
       <c r="BE24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG24">
         <v>0</v>
@@ -5234,10 +5102,10 @@
         <v>1</v>
       </c>
       <c r="BL24" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="BM24">
-        <v>0.0149258812799544</v>
+        <v>0.01869758748788716</v>
       </c>
       <c r="BN24">
         <v>1</v>
@@ -5255,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="BS24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:71">
@@ -5263,13 +5131,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.00127593879947666</v>
+        <v>0.000858653359046716</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -5281,13 +5149,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="K25">
-        <v>0.008114421712774392</v>
+        <v>0.0008680929830766456</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -5311,13 +5179,13 @@
         <v>30</v>
       </c>
       <c r="T25">
-        <v>0.001496814774187563</v>
+        <v>0.0009921837023854807</v>
       </c>
       <c r="U25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W25">
         <v>0</v>
@@ -5329,13 +5197,13 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AC25">
-        <v>0.01309397642846278</v>
+        <v>0.01255236932228526</v>
       </c>
       <c r="AD25">
         <v>1</v>
@@ -5359,13 +5227,13 @@
         <v>30</v>
       </c>
       <c r="AL25">
-        <v>0.001819633506457345</v>
+        <v>0.001187343434957522</v>
       </c>
       <c r="AM25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO25">
         <v>0</v>
@@ -5377,13 +5245,13 @@
         <v>0</v>
       </c>
       <c r="AR25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="AU25">
-        <v>0.01435218588443424</v>
+        <v>0.01632452975749473</v>
       </c>
       <c r="AV25">
         <v>1</v>
@@ -5401,19 +5269,19 @@
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="BD25">
-        <v>0.002336143478088996</v>
+        <v>0.001499599007072788</v>
       </c>
       <c r="BE25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG25">
         <v>0</v>
@@ -5425,13 +5293,13 @@
         <v>0</v>
       </c>
       <c r="BJ25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL25" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="BM25">
-        <v>0.0149258812799544</v>
+        <v>0.01869758748788716</v>
       </c>
       <c r="BN25">
         <v>1</v>
@@ -5449,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="BS25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:71">
@@ -5457,13 +5325,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.00127593879947666</v>
+        <v>0.000858653359046716</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -5475,13 +5343,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="K26">
-        <v>0.008114421712774392</v>
+        <v>0.0008629529294658865</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -5499,19 +5367,19 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="T26">
-        <v>0.001496814774187563</v>
+        <v>0.0009921837023854807</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W26">
         <v>0</v>
@@ -5523,13 +5391,13 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="AC26">
-        <v>0.01309397642846278</v>
+        <v>0.0123924665283708</v>
       </c>
       <c r="AD26">
         <v>1</v>
@@ -5547,19 +5415,19 @@
         <v>0</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="AL26">
-        <v>0.001819633506457345</v>
+        <v>0.001187343434957522</v>
       </c>
       <c r="AM26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO26">
         <v>0</v>
@@ -5571,13 +5439,13 @@
         <v>0</v>
       </c>
       <c r="AR26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="AU26">
-        <v>0.01435218588443424</v>
+        <v>0.01632452975749473</v>
       </c>
       <c r="AV26">
         <v>1</v>
@@ -5595,19 +5463,19 @@
         <v>0</v>
       </c>
       <c r="BA26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="BD26">
-        <v>0.002336143478088996</v>
+        <v>0.001499599007072788</v>
       </c>
       <c r="BE26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG26">
         <v>0</v>
@@ -5619,13 +5487,13 @@
         <v>0</v>
       </c>
       <c r="BJ26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL26" s="1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="BM26">
-        <v>0.0149258812799544</v>
+        <v>0.01869758748788716</v>
       </c>
       <c r="BN26">
         <v>1</v>
@@ -5643,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="BS26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:71">
@@ -5651,13 +5519,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.001273361599449857</v>
+        <v>0.000858653359046716</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -5672,10 +5540,10 @@
         <v>2</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="K27">
-        <v>0.008114421712774392</v>
+        <v>0.0008629529294658865</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -5693,19 +5561,19 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="T27">
-        <v>0.00148457307406025</v>
+        <v>0.0009921837023854807</v>
       </c>
       <c r="U27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W27">
         <v>0</v>
@@ -5720,10 +5588,10 @@
         <v>2</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="AC27">
-        <v>0.01309397642846278</v>
+        <v>0.0123924665283708</v>
       </c>
       <c r="AD27">
         <v>1</v>
@@ -5741,19 +5609,19 @@
         <v>0</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AL27">
-        <v>0.001793266767721592</v>
+        <v>0.001187343434957522</v>
       </c>
       <c r="AM27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -5768,10 +5636,10 @@
         <v>2</v>
       </c>
       <c r="AT27" s="1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="AU27">
-        <v>0.01435218588443424</v>
+        <v>0.01632452975749473</v>
       </c>
       <c r="AV27">
         <v>1</v>
@@ -5789,19 +5657,19 @@
         <v>0</v>
       </c>
       <c r="BA27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="BD27">
-        <v>0.002287176677579741</v>
+        <v>0.001499599007072788</v>
       </c>
       <c r="BE27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG27">
         <v>0</v>
@@ -5816,10 +5684,10 @@
         <v>2</v>
       </c>
       <c r="BL27" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="BM27">
-        <v>0.0149258812799544</v>
+        <v>0.01869758748788716</v>
       </c>
       <c r="BN27">
         <v>1</v>
@@ -5837,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="BS27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:71">
@@ -5845,13 +5713,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.001273361599449857</v>
+        <v>0.0008560833322413363</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -5863,13 +5731,13 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="K28">
-        <v>0.008114421712774392</v>
+        <v>0.0008629529294658865</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -5887,19 +5755,19 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="T28">
-        <v>0.00148457307406025</v>
+        <v>0.0009799760750599279</v>
       </c>
       <c r="U28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W28">
         <v>0</v>
@@ -5911,13 +5779,13 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="AC28">
-        <v>0.01309397642846278</v>
+        <v>0.0123924665283708</v>
       </c>
       <c r="AD28">
         <v>1</v>
@@ -5935,19 +5803,19 @@
         <v>0</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AL28">
-        <v>0.001793266767721592</v>
+        <v>0.001161050083794792</v>
       </c>
       <c r="AM28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO28">
         <v>0</v>
@@ -5959,13 +5827,13 @@
         <v>0</v>
       </c>
       <c r="AR28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT28" s="1" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="AU28">
-        <v>0.01435218588443424</v>
+        <v>0.01632452975749473</v>
       </c>
       <c r="AV28">
         <v>1</v>
@@ -5983,19 +5851,19 @@
         <v>0</v>
       </c>
       <c r="BA28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="BD28">
-        <v>0.002287176677579741</v>
+        <v>0.001450768497770576</v>
       </c>
       <c r="BE28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG28">
         <v>0</v>
@@ -6007,13 +5875,13 @@
         <v>0</v>
       </c>
       <c r="BJ28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL28" s="1" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="BM28">
-        <v>0.0149258812799544</v>
+        <v>0.01857695789119111</v>
       </c>
       <c r="BN28">
         <v>1</v>
@@ -6031,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="BS28">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:71">
@@ -6039,13 +5907,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.001270784399423054</v>
+        <v>0.0008560833322413363</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -6060,10 +5928,10 @@
         <v>3</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="K29">
-        <v>0.008114421712774392</v>
+        <v>0.0008629529294658865</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -6081,19 +5949,19 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="T29">
-        <v>0.001472331373932936</v>
+        <v>0.0009799760750599279</v>
       </c>
       <c r="U29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W29">
         <v>0</v>
@@ -6108,10 +5976,10 @@
         <v>3</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="AC29">
-        <v>0.01309397642846278</v>
+        <v>0.0123924665283708</v>
       </c>
       <c r="AD29">
         <v>1</v>
@@ -6129,19 +5997,19 @@
         <v>0</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AL29">
-        <v>0.00176690002898584</v>
+        <v>0.001161050083794792</v>
       </c>
       <c r="AM29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO29">
         <v>0</v>
@@ -6156,10 +6024,10 @@
         <v>3</v>
       </c>
       <c r="AT29" s="1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="AU29">
-        <v>0.01435218588443424</v>
+        <v>0.01621921021067219</v>
       </c>
       <c r="AV29">
         <v>1</v>
@@ -6177,19 +6045,19 @@
         <v>0</v>
       </c>
       <c r="BA29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="BD29">
-        <v>0.002238209877070486</v>
+        <v>0.001450768497770576</v>
       </c>
       <c r="BE29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG29">
         <v>0</v>
@@ -6204,10 +6072,10 @@
         <v>3</v>
       </c>
       <c r="BL29" s="1" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="BM29">
-        <v>0.0149258812799544</v>
+        <v>0.01857695789119111</v>
       </c>
       <c r="BN29">
         <v>1</v>
@@ -6225,7 +6093,7 @@
         <v>0</v>
       </c>
       <c r="BS29">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:71">
@@ -6233,13 +6101,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.001268207199396252</v>
+        <v>0.0008535133054359568</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -6254,10 +6122,10 @@
         <v>4</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="K30">
-        <v>0.008114421712774392</v>
+        <v>0.0008603829026605069</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -6275,19 +6143,19 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="T30">
-        <v>0.001460089673805622</v>
+        <v>0.0009677684477343749</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W30">
         <v>0</v>
@@ -6302,10 +6170,10 @@
         <v>4</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="AC30">
-        <v>0.01309397642846278</v>
+        <v>0.01231251513141357</v>
       </c>
       <c r="AD30">
         <v>1</v>
@@ -6323,19 +6191,19 @@
         <v>0</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="AL30">
-        <v>0.001740533290250087</v>
+        <v>0.001134756732632063</v>
       </c>
       <c r="AM30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO30">
         <v>0</v>
@@ -6350,10 +6218,10 @@
         <v>4</v>
       </c>
       <c r="AT30" s="1" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="AU30">
-        <v>0.01435218588443424</v>
+        <v>0.01621921021067219</v>
       </c>
       <c r="AV30">
         <v>1</v>
@@ -6371,19 +6239,19 @@
         <v>0</v>
       </c>
       <c r="BA30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="BD30">
-        <v>0.002189243076561231</v>
+        <v>0.001401937988468364</v>
       </c>
       <c r="BE30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG30">
         <v>0</v>
@@ -6398,10 +6266,10 @@
         <v>4</v>
       </c>
       <c r="BL30" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="BM30">
-        <v>0.0149258812799544</v>
+        <v>0.01845632829449506</v>
       </c>
       <c r="BN30">
         <v>1</v>
@@ -6419,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="BS30">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:71">
@@ -6427,13 +6295,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.001263052799342646</v>
+        <v>0.0008535133054359568</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -6445,13 +6313,13 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="K31">
-        <v>0.008114421712774392</v>
+        <v>0.0008603829026605069</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -6469,19 +6337,19 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T31">
-        <v>0.001435606273550995</v>
+        <v>0.0009677684477343749</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W31">
         <v>0</v>
@@ -6493,13 +6361,13 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="AC31">
-        <v>0.01309397642846278</v>
+        <v>0.01231251513141357</v>
       </c>
       <c r="AD31">
         <v>1</v>
@@ -6517,19 +6385,19 @@
         <v>0</v>
       </c>
       <c r="AI31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AL31">
-        <v>0.001687799812778582</v>
+        <v>0.001134756732632063</v>
       </c>
       <c r="AM31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO31">
         <v>0</v>
@@ -6541,13 +6409,13 @@
         <v>0</v>
       </c>
       <c r="AR31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AT31" s="1" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="AU31">
-        <v>0.01435218588443424</v>
+        <v>0.01611389066384964</v>
       </c>
       <c r="AV31">
         <v>1</v>
@@ -6565,19 +6433,19 @@
         <v>0</v>
       </c>
       <c r="BA31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="BD31">
-        <v>0.002091309475542722</v>
+        <v>0.001401937988468364</v>
       </c>
       <c r="BE31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG31">
         <v>0</v>
@@ -6589,13 +6457,13 @@
         <v>0</v>
       </c>
       <c r="BJ31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BL31" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="BM31">
-        <v>0.0149258812799544</v>
+        <v>0.01833569869779902</v>
       </c>
       <c r="BN31">
         <v>1</v>
@@ -6613,7 +6481,7 @@
         <v>0</v>
       </c>
       <c r="BS31">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:71">
@@ -6621,13 +6489,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.001245012399155026</v>
+        <v>0.000845803225019818</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -6639,13 +6507,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="K32">
-        <v>0.008114421712774392</v>
+        <v>0.0008578128758551273</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -6663,19 +6531,19 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="T32">
-        <v>0.001349914372659799</v>
+        <v>0.0009311455657577158</v>
       </c>
       <c r="U32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W32">
         <v>0</v>
@@ -6687,13 +6555,13 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="AC32">
-        <v>0.01309397642846278</v>
+        <v>0.01223256373445634</v>
       </c>
       <c r="AD32">
         <v>1</v>
@@ -6711,19 +6579,19 @@
         <v>0</v>
       </c>
       <c r="AI32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="AL32">
-        <v>0.001503232641628314</v>
+        <v>0.001055876679143874</v>
       </c>
       <c r="AM32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO32">
         <v>0</v>
@@ -6735,13 +6603,13 @@
         <v>0</v>
       </c>
       <c r="AR32">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AT32" s="1" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="AU32">
-        <v>0.01435218588443424</v>
+        <v>0.0160085711170271</v>
       </c>
       <c r="AV32">
         <v>1</v>
@@ -6759,19 +6627,19 @@
         <v>0</v>
       </c>
       <c r="BA32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BC32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="BD32">
-        <v>0.001748541871977939</v>
+        <v>0.001255446460561728</v>
       </c>
       <c r="BE32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG32">
         <v>0</v>
@@ -6783,13 +6651,13 @@
         <v>0</v>
       </c>
       <c r="BJ32">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BL32" s="1" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="BM32">
-        <v>0.0149258812799544</v>
+        <v>0.01821506910110297</v>
       </c>
       <c r="BN32">
         <v>1</v>
@@ -6807,7 +6675,7 @@
         <v>0</v>
       </c>
       <c r="BS32">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:71">
@@ -6815,7 +6683,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0008514849329933744</v>
+        <v>0.000845803225019818</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -6833,13 +6701,13 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="K33">
-        <v>0.008114421712774392</v>
+        <v>0.0008552428490497477</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -6857,13 +6725,13 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="T33">
-        <v>0.001001957082834147</v>
+        <v>0.0009311455657577158</v>
       </c>
       <c r="U33">
         <v>1</v>
@@ -6881,13 +6749,13 @@
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="AC33">
-        <v>0.01309397642846278</v>
+        <v>0.01215261233749911</v>
       </c>
       <c r="AD33">
         <v>1</v>
@@ -6905,13 +6773,13 @@
         <v>0</v>
       </c>
       <c r="AI33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AK33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AL33">
-        <v>0.001221877917216814</v>
+        <v>0.001055876679143874</v>
       </c>
       <c r="AM33">
         <v>1</v>
@@ -6929,13 +6797,13 @@
         <v>0</v>
       </c>
       <c r="AR33">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AT33" s="1" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AU33">
-        <v>0.01435218588443424</v>
+        <v>0.01590325157020455</v>
       </c>
       <c r="AV33">
         <v>1</v>
@@ -6953,13 +6821,13 @@
         <v>0</v>
       </c>
       <c r="BA33">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BC33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="BD33">
-        <v>0.001573751252229082</v>
+        <v>0.001255446460561728</v>
       </c>
       <c r="BE33">
         <v>1</v>
@@ -6977,13 +6845,13 @@
         <v>0</v>
       </c>
       <c r="BJ33">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BL33" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="BM33">
-        <v>0.0149258812799544</v>
+        <v>0.01821506910110297</v>
       </c>
       <c r="BN33">
         <v>1</v>
@@ -7001,39 +6869,15 @@
         <v>0</v>
       </c>
       <c r="BS33">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:71">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>0.0008514849329933744</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
       <c r="J34" s="1" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="K34">
-        <v>0.008114421712774392</v>
+        <v>0.0008526728222443681</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -7051,37 +6895,13 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T34">
-        <v>0.001001957082834147</v>
-      </c>
-      <c r="U34">
-        <v>1</v>
-      </c>
-      <c r="V34">
-        <v>1</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>1</v>
-      </c>
-      <c r="Y34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z34">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AC34">
-        <v>0.01309397642846278</v>
+        <v>0.01207266094054188</v>
       </c>
       <c r="AD34">
         <v>1</v>
@@ -7099,37 +6919,13 @@
         <v>0</v>
       </c>
       <c r="AI34">
-        <v>0</v>
-      </c>
-      <c r="AK34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL34">
-        <v>0.001221877917216814</v>
-      </c>
-      <c r="AM34">
-        <v>1</v>
-      </c>
-      <c r="AN34">
-        <v>1</v>
-      </c>
-      <c r="AO34">
-        <v>0</v>
-      </c>
-      <c r="AP34">
-        <v>1</v>
-      </c>
-      <c r="AQ34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR34">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AT34" s="1" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AU34">
-        <v>0.01435218588443424</v>
+        <v>0.01590325157020455</v>
       </c>
       <c r="AV34">
         <v>1</v>
@@ -7147,37 +6943,13 @@
         <v>0</v>
       </c>
       <c r="BA34">
-        <v>0</v>
-      </c>
-      <c r="BC34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="BD34">
-        <v>0.001573751252229082</v>
-      </c>
-      <c r="BE34">
-        <v>1</v>
-      </c>
-      <c r="BF34">
-        <v>1</v>
-      </c>
-      <c r="BG34">
-        <v>0</v>
-      </c>
-      <c r="BH34">
-        <v>1</v>
-      </c>
-      <c r="BI34" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ34">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BL34" s="1" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="BM34">
-        <v>0.0149258812799544</v>
+        <v>0.01797380990771088</v>
       </c>
       <c r="BN34">
         <v>1</v>
@@ -7195,39 +6967,15 @@
         <v>0</v>
       </c>
       <c r="BS34">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:71">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0.0008514849329933744</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
       <c r="J35" s="1" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="K35">
-        <v>0.008114421712774392</v>
+        <v>0.0008526728222443681</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -7245,37 +6993,13 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T35">
-        <v>0.001001957082834147</v>
-      </c>
-      <c r="U35">
-        <v>1</v>
-      </c>
-      <c r="V35">
-        <v>1</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>1</v>
-      </c>
-      <c r="Y35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AC35">
-        <v>0.01309397642846278</v>
+        <v>0.01207266094054188</v>
       </c>
       <c r="AD35">
         <v>1</v>
@@ -7293,37 +7017,13 @@
         <v>0</v>
       </c>
       <c r="AI35">
-        <v>0</v>
-      </c>
-      <c r="AK35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL35">
-        <v>0.001221877917216814</v>
-      </c>
-      <c r="AM35">
-        <v>1</v>
-      </c>
-      <c r="AN35">
-        <v>1</v>
-      </c>
-      <c r="AO35">
-        <v>0</v>
-      </c>
-      <c r="AP35">
-        <v>1</v>
-      </c>
-      <c r="AQ35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AT35" s="1" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AU35">
-        <v>0.01431971487564592</v>
+        <v>0.01569261247655946</v>
       </c>
       <c r="AV35">
         <v>1</v>
@@ -7341,43 +7041,19 @@
         <v>0</v>
       </c>
       <c r="BA35">
-        <v>1</v>
-      </c>
-      <c r="BC35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="BD35">
-        <v>0.001573751252229082</v>
-      </c>
-      <c r="BE35">
-        <v>1</v>
-      </c>
-      <c r="BF35">
-        <v>1</v>
-      </c>
-      <c r="BG35">
-        <v>0</v>
-      </c>
-      <c r="BH35">
-        <v>1</v>
-      </c>
-      <c r="BI35" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ35">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BL35" s="1" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="BM35">
-        <v>0.01489211231778256</v>
+        <v>0.01796642645845074</v>
       </c>
       <c r="BN35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP35">
         <v>1</v>
@@ -7389,39 +7065,15 @@
         <v>0</v>
       </c>
       <c r="BS35">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:71">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>0.0008514849329933744</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
       <c r="J36" s="1" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="K36">
-        <v>0.008096063292609743</v>
+        <v>0.0008475327686336089</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -7439,37 +7091,13 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>1</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T36">
-        <v>0.001001957082834147</v>
-      </c>
-      <c r="U36">
-        <v>1</v>
-      </c>
-      <c r="V36">
-        <v>1</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>1</v>
-      </c>
-      <c r="Y36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z36">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AB36" s="1" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AC36">
-        <v>0.01306435204740291</v>
+        <v>0.01191275814662742</v>
       </c>
       <c r="AD36">
         <v>1</v>
@@ -7487,37 +7115,13 @@
         <v>0</v>
       </c>
       <c r="AI36">
-        <v>1</v>
-      </c>
-      <c r="AK36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL36">
-        <v>0.001221877917216814</v>
-      </c>
-      <c r="AM36">
-        <v>1</v>
-      </c>
-      <c r="AN36">
-        <v>1</v>
-      </c>
-      <c r="AO36">
-        <v>0</v>
-      </c>
-      <c r="AP36">
-        <v>1</v>
-      </c>
-      <c r="AQ36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR36">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AT36" s="1" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AU36">
-        <v>0.01431971487564592</v>
+        <v>0.01548197338291436</v>
       </c>
       <c r="AV36">
         <v>1</v>
@@ -7535,37 +7139,13 @@
         <v>0</v>
       </c>
       <c r="BA36">
-        <v>1</v>
-      </c>
-      <c r="BC36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="BD36">
-        <v>0.001573751252229082</v>
-      </c>
-      <c r="BE36">
-        <v>1</v>
-      </c>
-      <c r="BF36">
-        <v>1</v>
-      </c>
-      <c r="BG36">
-        <v>0</v>
-      </c>
-      <c r="BH36">
-        <v>1</v>
-      </c>
-      <c r="BI36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ36">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BL36" s="1" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="BM36">
-        <v>0.01489211231778256</v>
+        <v>0.01773255071431879</v>
       </c>
       <c r="BN36">
         <v>1</v>
@@ -7583,39 +7163,15 @@
         <v>0</v>
       </c>
       <c r="BS36">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:71">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>0.0008514849329933744</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
       <c r="J37" s="1" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="K37">
-        <v>0.008096063292609743</v>
+        <v>0.0008423927150228498</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -7633,37 +7189,13 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>1</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T37">
-        <v>0.001001957082834147</v>
-      </c>
-      <c r="U37">
-        <v>1</v>
-      </c>
-      <c r="V37">
-        <v>1</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>1</v>
-      </c>
-      <c r="Y37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z37">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB37" s="1" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC37">
-        <v>0.01306435204740291</v>
+        <v>0.01175285535271295</v>
       </c>
       <c r="AD37">
         <v>1</v>
@@ -7681,37 +7213,13 @@
         <v>0</v>
       </c>
       <c r="AI37">
-        <v>1</v>
-      </c>
-      <c r="AK37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL37">
-        <v>0.001221877917216814</v>
-      </c>
-      <c r="AM37">
-        <v>1</v>
-      </c>
-      <c r="AN37">
-        <v>1</v>
-      </c>
-      <c r="AO37">
-        <v>0</v>
-      </c>
-      <c r="AP37">
-        <v>1</v>
-      </c>
-      <c r="AQ37" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR37">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AT37" s="1" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AU37">
-        <v>0.01431971487564592</v>
+        <v>0.01495537564880163</v>
       </c>
       <c r="AV37">
         <v>1</v>
@@ -7729,37 +7237,13 @@
         <v>0</v>
       </c>
       <c r="BA37">
-        <v>1</v>
-      </c>
-      <c r="BC37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD37">
-        <v>0.001573751252229082</v>
-      </c>
-      <c r="BE37">
-        <v>1</v>
-      </c>
-      <c r="BF37">
-        <v>1</v>
-      </c>
-      <c r="BG37">
-        <v>0</v>
-      </c>
-      <c r="BH37">
-        <v>1</v>
-      </c>
-      <c r="BI37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ37">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BL37" s="1" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="BM37">
-        <v>0.01489211231778256</v>
+        <v>0.01712940273083855</v>
       </c>
       <c r="BN37">
         <v>1</v>
@@ -7777,39 +7261,15 @@
         <v>0</v>
       </c>
       <c r="BS37">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:71">
-      <c r="A38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38">
-        <v>0.0008514849329933744</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
       <c r="J38" s="1" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="K38">
-        <v>0.008096063292609743</v>
+        <v>0.0008295425809959518</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -7827,37 +7287,13 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>1</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T38">
-        <v>0.001001957082834147</v>
-      </c>
-      <c r="U38">
-        <v>1</v>
-      </c>
-      <c r="V38">
-        <v>1</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <v>1</v>
-      </c>
-      <c r="Y38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z38">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AC38">
-        <v>0.01306435204740291</v>
+        <v>0.0113530983679268</v>
       </c>
       <c r="AD38">
         <v>1</v>
@@ -7875,37 +7311,13 @@
         <v>0</v>
       </c>
       <c r="AI38">
-        <v>1</v>
-      </c>
-      <c r="AK38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL38">
-        <v>0.001221877917216814</v>
-      </c>
-      <c r="AM38">
-        <v>1</v>
-      </c>
-      <c r="AN38">
-        <v>1</v>
-      </c>
-      <c r="AO38">
-        <v>0</v>
-      </c>
-      <c r="AP38">
-        <v>1</v>
-      </c>
-      <c r="AQ38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR38">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AT38" s="1" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AU38">
-        <v>0.01431971487564592</v>
+        <v>0.01485005610197908</v>
       </c>
       <c r="AV38">
         <v>1</v>
@@ -7923,37 +7335,13 @@
         <v>0</v>
       </c>
       <c r="BA38">
-        <v>1</v>
-      </c>
-      <c r="BC38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BD38">
-        <v>0.001573751252229082</v>
-      </c>
-      <c r="BE38">
-        <v>1</v>
-      </c>
-      <c r="BF38">
-        <v>1</v>
-      </c>
-      <c r="BG38">
-        <v>0</v>
-      </c>
-      <c r="BH38">
-        <v>1</v>
-      </c>
-      <c r="BI38" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ38">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BL38" s="1" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="BM38">
-        <v>0.01489211231778256</v>
+        <v>0.01700877313414251</v>
       </c>
       <c r="BN38">
         <v>1</v>
@@ -7971,39 +7359,15 @@
         <v>0</v>
       </c>
       <c r="BS38">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:71">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39">
-        <v>0.0008514849329933744</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
       <c r="J39" s="1" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="K39">
-        <v>0.008096063292609743</v>
+        <v>0.0008269725541905723</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -8021,37 +7385,13 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>1</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T39">
-        <v>0.001001957082834147</v>
-      </c>
-      <c r="U39">
-        <v>1</v>
-      </c>
-      <c r="V39">
-        <v>1</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>1</v>
-      </c>
-      <c r="Y39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z39">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AB39" s="1" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AC39">
-        <v>0.01306435204740291</v>
+        <v>0.01127314697096957</v>
       </c>
       <c r="AD39">
         <v>1</v>
@@ -8069,43 +7409,19 @@
         <v>0</v>
       </c>
       <c r="AI39">
-        <v>1</v>
-      </c>
-      <c r="AK39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL39">
-        <v>0.001221877917216814</v>
-      </c>
-      <c r="AM39">
-        <v>1</v>
-      </c>
-      <c r="AN39">
-        <v>1</v>
-      </c>
-      <c r="AO39">
-        <v>0</v>
-      </c>
-      <c r="AP39">
-        <v>1</v>
-      </c>
-      <c r="AQ39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR39">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AT39" s="1" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="AU39">
-        <v>0.01431971487564592</v>
+        <v>0.009772018710764798</v>
       </c>
       <c r="AV39">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AW39">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AX39">
         <v>1</v>
@@ -8117,37 +7433,13 @@
         <v>0</v>
       </c>
       <c r="BA39">
-        <v>1</v>
-      </c>
-      <c r="BC39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BD39">
-        <v>0.001573751252229082</v>
-      </c>
-      <c r="BE39">
-        <v>1</v>
-      </c>
-      <c r="BF39">
-        <v>1</v>
-      </c>
-      <c r="BG39">
-        <v>0</v>
-      </c>
-      <c r="BH39">
-        <v>1</v>
-      </c>
-      <c r="BI39" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ39">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="BL39" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="BM39">
-        <v>0.01489211231778256</v>
+        <v>0.009288478945595554</v>
       </c>
       <c r="BN39">
         <v>1</v>
@@ -8165,39 +7457,15 @@
         <v>0</v>
       </c>
       <c r="BS39">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:71">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40">
-        <v>0.0008514849329933744</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
       <c r="J40" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="K40">
-        <v>0.008096063292609743</v>
+        <v>0.000662490838646279</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -8215,37 +7483,13 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>1</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T40">
-        <v>0.001001957082834147</v>
-      </c>
-      <c r="U40">
-        <v>1</v>
-      </c>
-      <c r="V40">
-        <v>1</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40">
-        <v>1</v>
-      </c>
-      <c r="Y40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z40">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AB40" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AC40">
-        <v>0.01306435204740291</v>
+        <v>0.006156257565706784</v>
       </c>
       <c r="AD40">
         <v>1</v>
@@ -8263,231 +7507,111 @@
         <v>0</v>
       </c>
       <c r="AI40">
-        <v>1</v>
-      </c>
-      <c r="AK40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL40">
-        <v>0.001221877917216814</v>
-      </c>
-      <c r="AM40">
-        <v>1</v>
-      </c>
-      <c r="AN40">
-        <v>1</v>
-      </c>
-      <c r="AO40">
-        <v>0</v>
-      </c>
-      <c r="AP40">
-        <v>1</v>
-      </c>
-      <c r="AQ40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR40">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AT40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU40">
+        <v>0.008109605105336095</v>
+      </c>
+      <c r="AV40">
+        <v>1</v>
+      </c>
+      <c r="AW40">
+        <v>1</v>
+      </c>
+      <c r="AX40">
+        <v>1</v>
+      </c>
+      <c r="AY40">
+        <v>0</v>
+      </c>
+      <c r="AZ40" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA40">
+        <v>80</v>
+      </c>
+      <c r="BL40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BM40">
+        <v>0.006996516608370679</v>
+      </c>
+      <c r="BN40">
+        <v>1</v>
+      </c>
+      <c r="BO40">
+        <v>1</v>
+      </c>
+      <c r="BP40">
+        <v>1</v>
+      </c>
+      <c r="BQ40">
+        <v>0</v>
+      </c>
+      <c r="BR40" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS40">
         <v>99</v>
-      </c>
-      <c r="AU40">
-        <v>0.01431971487564592</v>
-      </c>
-      <c r="AV40">
-        <v>1</v>
-      </c>
-      <c r="AW40">
-        <v>1</v>
-      </c>
-      <c r="AX40">
-        <v>1</v>
-      </c>
-      <c r="AY40">
-        <v>0</v>
-      </c>
-      <c r="AZ40" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA40">
-        <v>1</v>
-      </c>
-      <c r="BC40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BD40">
-        <v>0.001573751252229082</v>
-      </c>
-      <c r="BE40">
-        <v>1</v>
-      </c>
-      <c r="BF40">
-        <v>1</v>
-      </c>
-      <c r="BG40">
-        <v>0</v>
-      </c>
-      <c r="BH40">
-        <v>1</v>
-      </c>
-      <c r="BI40" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ40">
-        <v>0</v>
-      </c>
-      <c r="BL40" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BM40">
-        <v>0.01489211231778256</v>
-      </c>
-      <c r="BN40">
-        <v>1</v>
-      </c>
-      <c r="BO40">
-        <v>1</v>
-      </c>
-      <c r="BP40">
-        <v>1</v>
-      </c>
-      <c r="BQ40">
-        <v>0</v>
-      </c>
-      <c r="BR40" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS40">
-        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:71">
-      <c r="A41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41">
-        <v>0.0008514849329933744</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
       <c r="J41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K41">
+        <v>0.0006136603293440669</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
         <v>99</v>
       </c>
-      <c r="K41">
-        <v>0.008096063292609743</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>1</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T41">
-        <v>0.001001957082834147</v>
-      </c>
-      <c r="U41">
-        <v>1</v>
-      </c>
-      <c r="V41">
-        <v>1</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>1</v>
-      </c>
-      <c r="Y41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z41">
-        <v>0</v>
-      </c>
       <c r="AB41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC41">
+        <v>0.004637181023519396</v>
+      </c>
+      <c r="AD41">
+        <v>1</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
+      </c>
+      <c r="AF41">
+        <v>1</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI41">
         <v>99</v>
       </c>
-      <c r="AC41">
-        <v>0.01306435204740291</v>
-      </c>
-      <c r="AD41">
-        <v>1</v>
-      </c>
-      <c r="AE41">
-        <v>1</v>
-      </c>
-      <c r="AF41">
-        <v>1</v>
-      </c>
-      <c r="AG41">
-        <v>0</v>
-      </c>
-      <c r="AH41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI41">
-        <v>1</v>
-      </c>
-      <c r="AK41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL41">
-        <v>0.001221877917216814</v>
-      </c>
-      <c r="AM41">
-        <v>1</v>
-      </c>
-      <c r="AN41">
-        <v>1</v>
-      </c>
-      <c r="AO41">
-        <v>0</v>
-      </c>
-      <c r="AP41">
-        <v>1</v>
-      </c>
-      <c r="AQ41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR41">
-        <v>0</v>
-      </c>
       <c r="AT41" s="1" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AU41">
-        <v>0.01431971487564592</v>
+        <v>0.006108533715707709</v>
       </c>
       <c r="AV41">
         <v>1</v>
@@ -8505,43 +7629,19 @@
         <v>0</v>
       </c>
       <c r="BA41">
-        <v>1</v>
-      </c>
-      <c r="BC41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BD41">
-        <v>0.001573751252229082</v>
-      </c>
-      <c r="BE41">
-        <v>1</v>
-      </c>
-      <c r="BF41">
-        <v>1</v>
-      </c>
-      <c r="BG41">
-        <v>0</v>
-      </c>
-      <c r="BH41">
-        <v>1</v>
-      </c>
-      <c r="BI41" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ41">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BL41" s="1" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="BM41">
-        <v>0.01489211231778256</v>
+        <v>0.003311177664148051</v>
       </c>
       <c r="BN41">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BO41">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BP41">
         <v>1</v>
@@ -8553,39 +7653,15 @@
         <v>0</v>
       </c>
       <c r="BS41">
-        <v>1</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42" spans="1:71">
-      <c r="A42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42">
-        <v>0.0008514849329933744</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
       <c r="J42" s="1" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="K42">
-        <v>0.008096063292609743</v>
+        <v>0.0004645987746320511</v>
       </c>
       <c r="L42">
         <v>1</v>
@@ -8603,37 +7679,13 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>1</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T42">
-        <v>0.001001957082834147</v>
-      </c>
-      <c r="U42">
-        <v>1</v>
-      </c>
-      <c r="V42">
-        <v>1</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <v>1</v>
-      </c>
-      <c r="Y42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z42">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="AB42" s="1" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AC42">
-        <v>0.01306435204740291</v>
+        <v>0</v>
       </c>
       <c r="AD42">
         <v>1</v>
@@ -8651,37 +7703,13 @@
         <v>0</v>
       </c>
       <c r="AI42">
-        <v>1</v>
-      </c>
-      <c r="AK42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL42">
-        <v>0.001221877917216814</v>
-      </c>
-      <c r="AM42">
-        <v>1</v>
-      </c>
-      <c r="AN42">
-        <v>1</v>
-      </c>
-      <c r="AO42">
-        <v>0</v>
-      </c>
-      <c r="AP42">
-        <v>1</v>
-      </c>
-      <c r="AQ42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR42">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="AT42" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AU42">
-        <v>0.01431971487564592</v>
+        <v>0</v>
       </c>
       <c r="AV42">
         <v>1</v>
@@ -8699,37 +7727,13 @@
         <v>0</v>
       </c>
       <c r="BA42">
-        <v>1</v>
-      </c>
-      <c r="BC42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BD42">
-        <v>0.001573751252229082</v>
-      </c>
-      <c r="BE42">
-        <v>1</v>
-      </c>
-      <c r="BF42">
-        <v>1</v>
-      </c>
-      <c r="BG42">
-        <v>0</v>
-      </c>
-      <c r="BH42">
-        <v>1</v>
-      </c>
-      <c r="BI42" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ42">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="BL42" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="BM42">
-        <v>0.01489211231778256</v>
+        <v>0</v>
       </c>
       <c r="BN42">
         <v>1</v>
@@ -8747,3413 +7751,7 @@
         <v>0</v>
       </c>
       <c r="BS42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:71">
-      <c r="A43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43">
-        <v>0.0008514849329933744</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K43">
-        <v>0.008096063292609743</v>
-      </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>1</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T43">
-        <v>0.001001957082834147</v>
-      </c>
-      <c r="U43">
-        <v>1</v>
-      </c>
-      <c r="V43">
-        <v>1</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43">
-        <v>1</v>
-      </c>
-      <c r="Y43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z43">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC43">
-        <v>0.01306435204740291</v>
-      </c>
-      <c r="AD43">
-        <v>1</v>
-      </c>
-      <c r="AE43">
-        <v>1</v>
-      </c>
-      <c r="AF43">
-        <v>1</v>
-      </c>
-      <c r="AG43">
-        <v>0</v>
-      </c>
-      <c r="AH43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI43">
-        <v>1</v>
-      </c>
-      <c r="AK43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL43">
-        <v>0.001221877917216814</v>
-      </c>
-      <c r="AM43">
-        <v>1</v>
-      </c>
-      <c r="AN43">
-        <v>1</v>
-      </c>
-      <c r="AO43">
-        <v>0</v>
-      </c>
-      <c r="AP43">
-        <v>1</v>
-      </c>
-      <c r="AQ43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR43">
-        <v>0</v>
-      </c>
-      <c r="AT43" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AU43">
-        <v>0.01431971487564592</v>
-      </c>
-      <c r="AV43">
-        <v>1</v>
-      </c>
-      <c r="AW43">
-        <v>1</v>
-      </c>
-      <c r="AX43">
-        <v>1</v>
-      </c>
-      <c r="AY43">
-        <v>0</v>
-      </c>
-      <c r="AZ43" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA43">
-        <v>1</v>
-      </c>
-      <c r="BC43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BD43">
-        <v>0.001573751252229082</v>
-      </c>
-      <c r="BE43">
-        <v>1</v>
-      </c>
-      <c r="BF43">
-        <v>1</v>
-      </c>
-      <c r="BG43">
-        <v>0</v>
-      </c>
-      <c r="BH43">
-        <v>1</v>
-      </c>
-      <c r="BI43" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ43">
-        <v>0</v>
-      </c>
-      <c r="BL43" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BM43">
-        <v>0.01489211231778256</v>
-      </c>
-      <c r="BN43">
-        <v>1</v>
-      </c>
-      <c r="BO43">
-        <v>1</v>
-      </c>
-      <c r="BP43">
-        <v>1</v>
-      </c>
-      <c r="BQ43">
-        <v>0</v>
-      </c>
-      <c r="BR43" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:71">
-      <c r="A44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44">
-        <v>0.0008489077329665714</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K44">
-        <v>0.008096063292609743</v>
-      </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>1</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T44">
-        <v>0.000989715382706833</v>
-      </c>
-      <c r="U44">
-        <v>1</v>
-      </c>
-      <c r="V44">
-        <v>1</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44">
-        <v>1</v>
-      </c>
-      <c r="Y44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z44">
-        <v>1</v>
-      </c>
-      <c r="AB44" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC44">
-        <v>0.01306435204740291</v>
-      </c>
-      <c r="AD44">
-        <v>1</v>
-      </c>
-      <c r="AE44">
-        <v>1</v>
-      </c>
-      <c r="AF44">
-        <v>1</v>
-      </c>
-      <c r="AG44">
-        <v>0</v>
-      </c>
-      <c r="AH44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI44">
-        <v>1</v>
-      </c>
-      <c r="AK44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL44">
-        <v>0.001195511178481062</v>
-      </c>
-      <c r="AM44">
-        <v>1</v>
-      </c>
-      <c r="AN44">
-        <v>1</v>
-      </c>
-      <c r="AO44">
-        <v>0</v>
-      </c>
-      <c r="AP44">
-        <v>1</v>
-      </c>
-      <c r="AQ44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR44">
-        <v>1</v>
-      </c>
-      <c r="AT44" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AU44">
-        <v>0.01431971487564592</v>
-      </c>
-      <c r="AV44">
-        <v>1</v>
-      </c>
-      <c r="AW44">
-        <v>1</v>
-      </c>
-      <c r="AX44">
-        <v>1</v>
-      </c>
-      <c r="AY44">
-        <v>0</v>
-      </c>
-      <c r="AZ44" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA44">
-        <v>1</v>
-      </c>
-      <c r="BC44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BD44">
-        <v>0.001524784451719827</v>
-      </c>
-      <c r="BE44">
-        <v>1</v>
-      </c>
-      <c r="BF44">
-        <v>1</v>
-      </c>
-      <c r="BG44">
-        <v>0</v>
-      </c>
-      <c r="BH44">
-        <v>1</v>
-      </c>
-      <c r="BI44" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ44">
-        <v>1</v>
-      </c>
-      <c r="BL44" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BM44">
-        <v>0.01489211231778256</v>
-      </c>
-      <c r="BN44">
-        <v>1</v>
-      </c>
-      <c r="BO44">
-        <v>1</v>
-      </c>
-      <c r="BP44">
-        <v>1</v>
-      </c>
-      <c r="BQ44">
-        <v>0</v>
-      </c>
-      <c r="BR44" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:71">
-      <c r="A45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45">
-        <v>0.0008489077329665714</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K45">
-        <v>0.008096063292609743</v>
-      </c>
-      <c r="L45">
-        <v>1</v>
-      </c>
-      <c r="M45">
-        <v>1</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>1</v>
-      </c>
-      <c r="S45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T45">
-        <v>0.000989715382706833</v>
-      </c>
-      <c r="U45">
-        <v>1</v>
-      </c>
-      <c r="V45">
-        <v>1</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45">
-        <v>1</v>
-      </c>
-      <c r="Y45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z45">
-        <v>1</v>
-      </c>
-      <c r="AB45" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC45">
-        <v>0.01306435204740291</v>
-      </c>
-      <c r="AD45">
-        <v>1</v>
-      </c>
-      <c r="AE45">
-        <v>1</v>
-      </c>
-      <c r="AF45">
-        <v>1</v>
-      </c>
-      <c r="AG45">
-        <v>0</v>
-      </c>
-      <c r="AH45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI45">
-        <v>1</v>
-      </c>
-      <c r="AK45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL45">
-        <v>0.001195511178481062</v>
-      </c>
-      <c r="AM45">
-        <v>1</v>
-      </c>
-      <c r="AN45">
-        <v>1</v>
-      </c>
-      <c r="AO45">
-        <v>0</v>
-      </c>
-      <c r="AP45">
-        <v>1</v>
-      </c>
-      <c r="AQ45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR45">
-        <v>1</v>
-      </c>
-      <c r="AT45" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AU45">
-        <v>0.01431971487564592</v>
-      </c>
-      <c r="AV45">
-        <v>1</v>
-      </c>
-      <c r="AW45">
-        <v>1</v>
-      </c>
-      <c r="AX45">
-        <v>1</v>
-      </c>
-      <c r="AY45">
-        <v>0</v>
-      </c>
-      <c r="AZ45" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA45">
-        <v>1</v>
-      </c>
-      <c r="BC45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD45">
-        <v>0.001524784451719827</v>
-      </c>
-      <c r="BE45">
-        <v>1</v>
-      </c>
-      <c r="BF45">
-        <v>1</v>
-      </c>
-      <c r="BG45">
-        <v>0</v>
-      </c>
-      <c r="BH45">
-        <v>1</v>
-      </c>
-      <c r="BI45" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ45">
-        <v>1</v>
-      </c>
-      <c r="BL45" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BM45">
-        <v>0.01489211231778256</v>
-      </c>
-      <c r="BN45">
-        <v>1</v>
-      </c>
-      <c r="BO45">
-        <v>1</v>
-      </c>
-      <c r="BP45">
-        <v>1</v>
-      </c>
-      <c r="BQ45">
-        <v>0</v>
-      </c>
-      <c r="BR45" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:71">
-      <c r="A46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46">
-        <v>0.0008489077329665714</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K46">
-        <v>0.008096063292609743</v>
-      </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>1</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T46">
-        <v>0.000989715382706833</v>
-      </c>
-      <c r="U46">
-        <v>1</v>
-      </c>
-      <c r="V46">
-        <v>1</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <v>1</v>
-      </c>
-      <c r="Y46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z46">
-        <v>1</v>
-      </c>
-      <c r="AB46" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC46">
-        <v>0.01306435204740291</v>
-      </c>
-      <c r="AD46">
-        <v>1</v>
-      </c>
-      <c r="AE46">
-        <v>1</v>
-      </c>
-      <c r="AF46">
-        <v>1</v>
-      </c>
-      <c r="AG46">
-        <v>0</v>
-      </c>
-      <c r="AH46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI46">
-        <v>1</v>
-      </c>
-      <c r="AK46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL46">
-        <v>0.001195511178481062</v>
-      </c>
-      <c r="AM46">
-        <v>1</v>
-      </c>
-      <c r="AN46">
-        <v>1</v>
-      </c>
-      <c r="AO46">
-        <v>0</v>
-      </c>
-      <c r="AP46">
-        <v>1</v>
-      </c>
-      <c r="AQ46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR46">
-        <v>1</v>
-      </c>
-      <c r="AT46" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU46">
-        <v>0.01428724386685761</v>
-      </c>
-      <c r="AV46">
-        <v>1</v>
-      </c>
-      <c r="AW46">
-        <v>1</v>
-      </c>
-      <c r="AX46">
-        <v>1</v>
-      </c>
-      <c r="AY46">
-        <v>0</v>
-      </c>
-      <c r="AZ46" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA46">
-        <v>2</v>
-      </c>
-      <c r="BC46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BD46">
-        <v>0.001524784451719827</v>
-      </c>
-      <c r="BE46">
-        <v>1</v>
-      </c>
-      <c r="BF46">
-        <v>1</v>
-      </c>
-      <c r="BG46">
-        <v>0</v>
-      </c>
-      <c r="BH46">
-        <v>1</v>
-      </c>
-      <c r="BI46" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ46">
-        <v>1</v>
-      </c>
-      <c r="BL46" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BM46">
-        <v>0.01485834335561072</v>
-      </c>
-      <c r="BN46">
-        <v>1</v>
-      </c>
-      <c r="BO46">
-        <v>1</v>
-      </c>
-      <c r="BP46">
-        <v>1</v>
-      </c>
-      <c r="BQ46">
-        <v>0</v>
-      </c>
-      <c r="BR46" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:71">
-      <c r="A47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47">
-        <v>0.0008489077329665714</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K47">
-        <v>0.008077704872445097</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-      <c r="M47">
-        <v>1</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>2</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T47">
-        <v>0.000989715382706833</v>
-      </c>
-      <c r="U47">
-        <v>1</v>
-      </c>
-      <c r="V47">
-        <v>1</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="X47">
-        <v>1</v>
-      </c>
-      <c r="Y47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z47">
-        <v>1</v>
-      </c>
-      <c r="AB47" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC47">
-        <v>0.01303472766634304</v>
-      </c>
-      <c r="AD47">
-        <v>1</v>
-      </c>
-      <c r="AE47">
-        <v>1</v>
-      </c>
-      <c r="AF47">
-        <v>1</v>
-      </c>
-      <c r="AG47">
-        <v>0</v>
-      </c>
-      <c r="AH47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI47">
-        <v>2</v>
-      </c>
-      <c r="AK47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL47">
-        <v>0.001195511178481062</v>
-      </c>
-      <c r="AM47">
-        <v>1</v>
-      </c>
-      <c r="AN47">
-        <v>1</v>
-      </c>
-      <c r="AO47">
-        <v>0</v>
-      </c>
-      <c r="AP47">
-        <v>1</v>
-      </c>
-      <c r="AQ47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR47">
-        <v>1</v>
-      </c>
-      <c r="AT47" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU47">
-        <v>0.01428724386685761</v>
-      </c>
-      <c r="AV47">
-        <v>1</v>
-      </c>
-      <c r="AW47">
-        <v>1</v>
-      </c>
-      <c r="AX47">
-        <v>1</v>
-      </c>
-      <c r="AY47">
-        <v>0</v>
-      </c>
-      <c r="AZ47" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA47">
-        <v>2</v>
-      </c>
-      <c r="BC47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD47">
-        <v>0.001524784451719827</v>
-      </c>
-      <c r="BE47">
-        <v>1</v>
-      </c>
-      <c r="BF47">
-        <v>1</v>
-      </c>
-      <c r="BG47">
-        <v>0</v>
-      </c>
-      <c r="BH47">
-        <v>1</v>
-      </c>
-      <c r="BI47" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ47">
-        <v>1</v>
-      </c>
-      <c r="BL47" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BM47">
-        <v>0.01485834335561072</v>
-      </c>
-      <c r="BN47">
-        <v>1</v>
-      </c>
-      <c r="BO47">
-        <v>1</v>
-      </c>
-      <c r="BP47">
-        <v>1</v>
-      </c>
-      <c r="BQ47">
-        <v>0</v>
-      </c>
-      <c r="BR47" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:71">
-      <c r="A48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48">
-        <v>0.0008489077329665714</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K48">
-        <v>0.008077704872445097</v>
-      </c>
-      <c r="L48">
-        <v>1</v>
-      </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>2</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T48">
-        <v>0.000989715382706833</v>
-      </c>
-      <c r="U48">
-        <v>1</v>
-      </c>
-      <c r="V48">
-        <v>1</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48">
-        <v>1</v>
-      </c>
-      <c r="Y48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z48">
-        <v>1</v>
-      </c>
-      <c r="AB48" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC48">
-        <v>0.01303472766634304</v>
-      </c>
-      <c r="AD48">
-        <v>1</v>
-      </c>
-      <c r="AE48">
-        <v>1</v>
-      </c>
-      <c r="AF48">
-        <v>1</v>
-      </c>
-      <c r="AG48">
-        <v>0</v>
-      </c>
-      <c r="AH48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI48">
-        <v>2</v>
-      </c>
-      <c r="AK48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL48">
-        <v>0.001195511178481062</v>
-      </c>
-      <c r="AM48">
-        <v>1</v>
-      </c>
-      <c r="AN48">
-        <v>1</v>
-      </c>
-      <c r="AO48">
-        <v>0</v>
-      </c>
-      <c r="AP48">
-        <v>1</v>
-      </c>
-      <c r="AQ48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR48">
-        <v>1</v>
-      </c>
-      <c r="AT48" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AU48">
-        <v>0.01428724386685761</v>
-      </c>
-      <c r="AV48">
-        <v>1</v>
-      </c>
-      <c r="AW48">
-        <v>1</v>
-      </c>
-      <c r="AX48">
-        <v>1</v>
-      </c>
-      <c r="AY48">
-        <v>0</v>
-      </c>
-      <c r="AZ48" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA48">
-        <v>2</v>
-      </c>
-      <c r="BC48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD48">
-        <v>0.001524784451719827</v>
-      </c>
-      <c r="BE48">
-        <v>1</v>
-      </c>
-      <c r="BF48">
-        <v>1</v>
-      </c>
-      <c r="BG48">
-        <v>0</v>
-      </c>
-      <c r="BH48">
-        <v>1</v>
-      </c>
-      <c r="BI48" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ48">
-        <v>1</v>
-      </c>
-      <c r="BL48" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BM48">
-        <v>0.01485834335561072</v>
-      </c>
-      <c r="BN48">
-        <v>1</v>
-      </c>
-      <c r="BO48">
-        <v>1</v>
-      </c>
-      <c r="BP48">
-        <v>1</v>
-      </c>
-      <c r="BQ48">
-        <v>0</v>
-      </c>
-      <c r="BR48" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:71">
-      <c r="A49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49">
-        <v>0.0008489077329665714</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K49">
-        <v>0.008077704872445097</v>
-      </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
-      <c r="M49">
-        <v>1</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>2</v>
-      </c>
-      <c r="S49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T49">
-        <v>0.000989715382706833</v>
-      </c>
-      <c r="U49">
-        <v>1</v>
-      </c>
-      <c r="V49">
-        <v>1</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49">
-        <v>1</v>
-      </c>
-      <c r="Y49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z49">
-        <v>1</v>
-      </c>
-      <c r="AB49" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC49">
-        <v>0.01303472766634304</v>
-      </c>
-      <c r="AD49">
-        <v>1</v>
-      </c>
-      <c r="AE49">
-        <v>1</v>
-      </c>
-      <c r="AF49">
-        <v>1</v>
-      </c>
-      <c r="AG49">
-        <v>0</v>
-      </c>
-      <c r="AH49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI49">
-        <v>2</v>
-      </c>
-      <c r="AK49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL49">
-        <v>0.001195511178481062</v>
-      </c>
-      <c r="AM49">
-        <v>1</v>
-      </c>
-      <c r="AN49">
-        <v>1</v>
-      </c>
-      <c r="AO49">
-        <v>0</v>
-      </c>
-      <c r="AP49">
-        <v>1</v>
-      </c>
-      <c r="AQ49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR49">
-        <v>1</v>
-      </c>
-      <c r="AT49" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AU49">
-        <v>0.01428724386685761</v>
-      </c>
-      <c r="AV49">
-        <v>1</v>
-      </c>
-      <c r="AW49">
-        <v>1</v>
-      </c>
-      <c r="AX49">
-        <v>1</v>
-      </c>
-      <c r="AY49">
-        <v>0</v>
-      </c>
-      <c r="AZ49" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA49">
-        <v>2</v>
-      </c>
-      <c r="BC49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD49">
-        <v>0.001524784451719827</v>
-      </c>
-      <c r="BE49">
-        <v>1</v>
-      </c>
-      <c r="BF49">
-        <v>1</v>
-      </c>
-      <c r="BG49">
-        <v>0</v>
-      </c>
-      <c r="BH49">
-        <v>1</v>
-      </c>
-      <c r="BI49" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ49">
-        <v>1</v>
-      </c>
-      <c r="BL49" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BM49">
-        <v>0.01485834335561072</v>
-      </c>
-      <c r="BN49">
-        <v>1</v>
-      </c>
-      <c r="BO49">
-        <v>1</v>
-      </c>
-      <c r="BP49">
-        <v>1</v>
-      </c>
-      <c r="BQ49">
-        <v>0</v>
-      </c>
-      <c r="BR49" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:71">
-      <c r="A50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50">
-        <v>0.0008489077329665714</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K50">
-        <v>0.008077704872445097</v>
-      </c>
-      <c r="L50">
-        <v>1</v>
-      </c>
-      <c r="M50">
-        <v>1</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>2</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T50">
-        <v>0.000989715382706833</v>
-      </c>
-      <c r="U50">
-        <v>1</v>
-      </c>
-      <c r="V50">
-        <v>1</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="X50">
-        <v>1</v>
-      </c>
-      <c r="Y50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z50">
-        <v>1</v>
-      </c>
-      <c r="AB50" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC50">
-        <v>0.01303472766634304</v>
-      </c>
-      <c r="AD50">
-        <v>1</v>
-      </c>
-      <c r="AE50">
-        <v>1</v>
-      </c>
-      <c r="AF50">
-        <v>1</v>
-      </c>
-      <c r="AG50">
-        <v>0</v>
-      </c>
-      <c r="AH50" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI50">
-        <v>2</v>
-      </c>
-      <c r="AK50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL50">
-        <v>0.001195511178481062</v>
-      </c>
-      <c r="AM50">
-        <v>1</v>
-      </c>
-      <c r="AN50">
-        <v>1</v>
-      </c>
-      <c r="AO50">
-        <v>0</v>
-      </c>
-      <c r="AP50">
-        <v>1</v>
-      </c>
-      <c r="AQ50" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR50">
-        <v>1</v>
-      </c>
-      <c r="AT50" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU50">
-        <v>0.0142547728580693</v>
-      </c>
-      <c r="AV50">
-        <v>1</v>
-      </c>
-      <c r="AW50">
-        <v>1</v>
-      </c>
-      <c r="AX50">
-        <v>1</v>
-      </c>
-      <c r="AY50">
-        <v>0</v>
-      </c>
-      <c r="AZ50" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA50">
-        <v>3</v>
-      </c>
-      <c r="BC50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BD50">
-        <v>0.001524784451719827</v>
-      </c>
-      <c r="BE50">
-        <v>1</v>
-      </c>
-      <c r="BF50">
-        <v>1</v>
-      </c>
-      <c r="BG50">
-        <v>0</v>
-      </c>
-      <c r="BH50">
-        <v>1</v>
-      </c>
-      <c r="BI50" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ50">
-        <v>1</v>
-      </c>
-      <c r="BL50" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="BM50">
-        <v>0.01482457439343887</v>
-      </c>
-      <c r="BN50">
-        <v>1</v>
-      </c>
-      <c r="BO50">
-        <v>1</v>
-      </c>
-      <c r="BP50">
-        <v>1</v>
-      </c>
-      <c r="BQ50">
-        <v>0</v>
-      </c>
-      <c r="BR50" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:71">
-      <c r="A51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51">
-        <v>0.0008463305329397686</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>2</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K51">
-        <v>0.008059346452280449</v>
-      </c>
-      <c r="L51">
-        <v>1</v>
-      </c>
-      <c r="M51">
-        <v>1</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>3</v>
-      </c>
-      <c r="S51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T51">
-        <v>0.0009774736825795194</v>
-      </c>
-      <c r="U51">
-        <v>1</v>
-      </c>
-      <c r="V51">
-        <v>1</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="X51">
-        <v>1</v>
-      </c>
-      <c r="Y51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z51">
-        <v>2</v>
-      </c>
-      <c r="AB51" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC51">
-        <v>0.01300510328528316</v>
-      </c>
-      <c r="AD51">
-        <v>1</v>
-      </c>
-      <c r="AE51">
-        <v>1</v>
-      </c>
-      <c r="AF51">
-        <v>1</v>
-      </c>
-      <c r="AG51">
-        <v>0</v>
-      </c>
-      <c r="AH51" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI51">
-        <v>3</v>
-      </c>
-      <c r="AK51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL51">
-        <v>0.001169144439745309</v>
-      </c>
-      <c r="AM51">
-        <v>1</v>
-      </c>
-      <c r="AN51">
-        <v>1</v>
-      </c>
-      <c r="AO51">
-        <v>0</v>
-      </c>
-      <c r="AP51">
-        <v>1</v>
-      </c>
-      <c r="AQ51" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR51">
-        <v>2</v>
-      </c>
-      <c r="AT51" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AU51">
-        <v>0.0142547728580693</v>
-      </c>
-      <c r="AV51">
-        <v>1</v>
-      </c>
-      <c r="AW51">
-        <v>1</v>
-      </c>
-      <c r="AX51">
-        <v>1</v>
-      </c>
-      <c r="AY51">
-        <v>0</v>
-      </c>
-      <c r="AZ51" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA51">
-        <v>3</v>
-      </c>
-      <c r="BC51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BD51">
-        <v>0.001475817651210573</v>
-      </c>
-      <c r="BE51">
-        <v>1</v>
-      </c>
-      <c r="BF51">
-        <v>1</v>
-      </c>
-      <c r="BG51">
-        <v>0</v>
-      </c>
-      <c r="BH51">
-        <v>1</v>
-      </c>
-      <c r="BI51" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ51">
-        <v>2</v>
-      </c>
-      <c r="BL51" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BM51">
-        <v>0.01482457439343887</v>
-      </c>
-      <c r="BN51">
-        <v>1</v>
-      </c>
-      <c r="BO51">
-        <v>1</v>
-      </c>
-      <c r="BP51">
-        <v>1</v>
-      </c>
-      <c r="BQ51">
-        <v>0</v>
-      </c>
-      <c r="BR51" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:71">
-      <c r="A52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52">
-        <v>0.0008463305329397686</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>2</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K52">
-        <v>0.008059346452280449</v>
-      </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
-      <c r="M52">
-        <v>1</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>3</v>
-      </c>
-      <c r="S52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T52">
-        <v>0.0009774736825795194</v>
-      </c>
-      <c r="U52">
-        <v>1</v>
-      </c>
-      <c r="V52">
-        <v>1</v>
-      </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-      <c r="X52">
-        <v>1</v>
-      </c>
-      <c r="Y52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z52">
-        <v>2</v>
-      </c>
-      <c r="AB52" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC52">
-        <v>0.01300510328528316</v>
-      </c>
-      <c r="AD52">
-        <v>1</v>
-      </c>
-      <c r="AE52">
-        <v>1</v>
-      </c>
-      <c r="AF52">
-        <v>1</v>
-      </c>
-      <c r="AG52">
-        <v>0</v>
-      </c>
-      <c r="AH52" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI52">
-        <v>3</v>
-      </c>
-      <c r="AK52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL52">
-        <v>0.001169144439745309</v>
-      </c>
-      <c r="AM52">
-        <v>1</v>
-      </c>
-      <c r="AN52">
-        <v>1</v>
-      </c>
-      <c r="AO52">
-        <v>0</v>
-      </c>
-      <c r="AP52">
-        <v>1</v>
-      </c>
-      <c r="AQ52" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR52">
-        <v>2</v>
-      </c>
-      <c r="AT52" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AU52">
-        <v>0.01422230184928099</v>
-      </c>
-      <c r="AV52">
-        <v>1</v>
-      </c>
-      <c r="AW52">
-        <v>1</v>
-      </c>
-      <c r="AX52">
-        <v>1</v>
-      </c>
-      <c r="AY52">
-        <v>0</v>
-      </c>
-      <c r="AZ52" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA52">
-        <v>4</v>
-      </c>
-      <c r="BC52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD52">
-        <v>0.001475817651210573</v>
-      </c>
-      <c r="BE52">
-        <v>1</v>
-      </c>
-      <c r="BF52">
-        <v>1</v>
-      </c>
-      <c r="BG52">
-        <v>0</v>
-      </c>
-      <c r="BH52">
-        <v>1</v>
-      </c>
-      <c r="BI52" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ52">
-        <v>2</v>
-      </c>
-      <c r="BL52" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM52">
-        <v>0.01479080543126703</v>
-      </c>
-      <c r="BN52">
-        <v>1</v>
-      </c>
-      <c r="BO52">
-        <v>1</v>
-      </c>
-      <c r="BP52">
-        <v>1</v>
-      </c>
-      <c r="BQ52">
-        <v>0</v>
-      </c>
-      <c r="BR52" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:71">
-      <c r="A53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53">
-        <v>0.0008437533329129658</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>3</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K53">
-        <v>0.0080409880321158</v>
-      </c>
-      <c r="L53">
-        <v>1</v>
-      </c>
-      <c r="M53">
-        <v>1</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>4</v>
-      </c>
-      <c r="S53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T53">
-        <v>0.0009652319824522056</v>
-      </c>
-      <c r="U53">
-        <v>1</v>
-      </c>
-      <c r="V53">
-        <v>1</v>
-      </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-      <c r="X53">
-        <v>1</v>
-      </c>
-      <c r="Y53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z53">
-        <v>3</v>
-      </c>
-      <c r="AB53" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC53">
-        <v>0.01297547890422329</v>
-      </c>
-      <c r="AD53">
-        <v>1</v>
-      </c>
-      <c r="AE53">
-        <v>1</v>
-      </c>
-      <c r="AF53">
-        <v>1</v>
-      </c>
-      <c r="AG53">
-        <v>0</v>
-      </c>
-      <c r="AH53" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI53">
-        <v>4</v>
-      </c>
-      <c r="AK53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL53">
-        <v>0.001142777701009556</v>
-      </c>
-      <c r="AM53">
-        <v>1</v>
-      </c>
-      <c r="AN53">
-        <v>1</v>
-      </c>
-      <c r="AO53">
-        <v>0</v>
-      </c>
-      <c r="AP53">
-        <v>1</v>
-      </c>
-      <c r="AQ53" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR53">
-        <v>3</v>
-      </c>
-      <c r="AT53" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU53">
-        <v>0.01418983084049267</v>
-      </c>
-      <c r="AV53">
-        <v>1</v>
-      </c>
-      <c r="AW53">
-        <v>1</v>
-      </c>
-      <c r="AX53">
-        <v>1</v>
-      </c>
-      <c r="AY53">
-        <v>0</v>
-      </c>
-      <c r="AZ53" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA53">
-        <v>5</v>
-      </c>
-      <c r="BC53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BD53">
-        <v>0.001426850850701318</v>
-      </c>
-      <c r="BE53">
-        <v>1</v>
-      </c>
-      <c r="BF53">
-        <v>1</v>
-      </c>
-      <c r="BG53">
-        <v>0</v>
-      </c>
-      <c r="BH53">
-        <v>1</v>
-      </c>
-      <c r="BI53" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ53">
-        <v>3</v>
-      </c>
-      <c r="BL53" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="BM53">
-        <v>0.01475703646909519</v>
-      </c>
-      <c r="BN53">
-        <v>1</v>
-      </c>
-      <c r="BO53">
-        <v>1</v>
-      </c>
-      <c r="BP53">
-        <v>1</v>
-      </c>
-      <c r="BQ53">
-        <v>0</v>
-      </c>
-      <c r="BR53" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS53">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:71">
-      <c r="A54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54">
-        <v>0.0008411761328861628</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>4</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K54">
-        <v>0.008022629611951151</v>
-      </c>
-      <c r="L54">
-        <v>1</v>
-      </c>
-      <c r="M54">
-        <v>1</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>5</v>
-      </c>
-      <c r="S54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="T54">
-        <v>0.000952990282324892</v>
-      </c>
-      <c r="U54">
-        <v>1</v>
-      </c>
-      <c r="V54">
-        <v>1</v>
-      </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-      <c r="X54">
-        <v>1</v>
-      </c>
-      <c r="Y54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z54">
-        <v>4</v>
-      </c>
-      <c r="AB54" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC54">
-        <v>0.01294585452316342</v>
-      </c>
-      <c r="AD54">
-        <v>1</v>
-      </c>
-      <c r="AE54">
-        <v>1</v>
-      </c>
-      <c r="AF54">
-        <v>1</v>
-      </c>
-      <c r="AG54">
-        <v>0</v>
-      </c>
-      <c r="AH54" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI54">
-        <v>5</v>
-      </c>
-      <c r="AK54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL54">
-        <v>0.001116410962273804</v>
-      </c>
-      <c r="AM54">
-        <v>1</v>
-      </c>
-      <c r="AN54">
-        <v>1</v>
-      </c>
-      <c r="AO54">
-        <v>0</v>
-      </c>
-      <c r="AP54">
-        <v>1</v>
-      </c>
-      <c r="AQ54" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR54">
-        <v>4</v>
-      </c>
-      <c r="AT54" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AU54">
-        <v>0.01415735983170436</v>
-      </c>
-      <c r="AV54">
-        <v>1</v>
-      </c>
-      <c r="AW54">
-        <v>1</v>
-      </c>
-      <c r="AX54">
-        <v>1</v>
-      </c>
-      <c r="AY54">
-        <v>0</v>
-      </c>
-      <c r="AZ54" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA54">
-        <v>6</v>
-      </c>
-      <c r="BC54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD54">
-        <v>0.001377884050192063</v>
-      </c>
-      <c r="BE54">
-        <v>1</v>
-      </c>
-      <c r="BF54">
-        <v>1</v>
-      </c>
-      <c r="BG54">
-        <v>0</v>
-      </c>
-      <c r="BH54">
-        <v>1</v>
-      </c>
-      <c r="BI54" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ54">
-        <v>4</v>
-      </c>
-      <c r="BL54" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="BM54">
-        <v>0.01472326750692335</v>
-      </c>
-      <c r="BN54">
-        <v>1</v>
-      </c>
-      <c r="BO54">
-        <v>1</v>
-      </c>
-      <c r="BP54">
-        <v>1</v>
-      </c>
-      <c r="BQ54">
-        <v>0</v>
-      </c>
-      <c r="BR54" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS54">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:71">
-      <c r="J55" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K55">
-        <v>0.008004271191786505</v>
-      </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-      <c r="M55">
-        <v>1</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>6</v>
-      </c>
-      <c r="AB55" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC55">
-        <v>0.01291623014210355</v>
-      </c>
-      <c r="AD55">
-        <v>1</v>
-      </c>
-      <c r="AE55">
-        <v>1</v>
-      </c>
-      <c r="AF55">
-        <v>1</v>
-      </c>
-      <c r="AG55">
-        <v>0</v>
-      </c>
-      <c r="AH55" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI55">
-        <v>6</v>
-      </c>
-      <c r="AT55" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AU55">
-        <v>0.01415735983170436</v>
-      </c>
-      <c r="AV55">
-        <v>1</v>
-      </c>
-      <c r="AW55">
-        <v>1</v>
-      </c>
-      <c r="AX55">
-        <v>1</v>
-      </c>
-      <c r="AY55">
-        <v>0</v>
-      </c>
-      <c r="AZ55" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA55">
-        <v>6</v>
-      </c>
-      <c r="BL55" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BM55">
-        <v>0.01472326750692335</v>
-      </c>
-      <c r="BN55">
-        <v>1</v>
-      </c>
-      <c r="BO55">
-        <v>1</v>
-      </c>
-      <c r="BP55">
-        <v>1</v>
-      </c>
-      <c r="BQ55">
-        <v>0</v>
-      </c>
-      <c r="BR55" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS55">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:71">
-      <c r="J56" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K56">
-        <v>0.008004271191786505</v>
-      </c>
-      <c r="L56">
-        <v>1</v>
-      </c>
-      <c r="M56">
-        <v>1</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>6</v>
-      </c>
-      <c r="AB56" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC56">
-        <v>0.01291623014210355</v>
-      </c>
-      <c r="AD56">
-        <v>1</v>
-      </c>
-      <c r="AE56">
-        <v>1</v>
-      </c>
-      <c r="AF56">
-        <v>1</v>
-      </c>
-      <c r="AG56">
-        <v>0</v>
-      </c>
-      <c r="AH56" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI56">
-        <v>6</v>
-      </c>
-      <c r="AT56" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AU56">
-        <v>0.01415735983170436</v>
-      </c>
-      <c r="AV56">
-        <v>1</v>
-      </c>
-      <c r="AW56">
-        <v>1</v>
-      </c>
-      <c r="AX56">
-        <v>1</v>
-      </c>
-      <c r="AY56">
-        <v>0</v>
-      </c>
-      <c r="AZ56" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA56">
-        <v>6</v>
-      </c>
-      <c r="BL56" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="BM56">
-        <v>0.01472326750692335</v>
-      </c>
-      <c r="BN56">
-        <v>1</v>
-      </c>
-      <c r="BO56">
-        <v>1</v>
-      </c>
-      <c r="BP56">
-        <v>1</v>
-      </c>
-      <c r="BQ56">
-        <v>0</v>
-      </c>
-      <c r="BR56" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS56">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:71">
-      <c r="J57" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K57">
-        <v>0.008004271191786505</v>
-      </c>
-      <c r="L57">
-        <v>1</v>
-      </c>
-      <c r="M57">
-        <v>1</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>6</v>
-      </c>
-      <c r="AB57" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC57">
-        <v>0.01291623014210355</v>
-      </c>
-      <c r="AD57">
-        <v>1</v>
-      </c>
-      <c r="AE57">
-        <v>1</v>
-      </c>
-      <c r="AF57">
-        <v>1</v>
-      </c>
-      <c r="AG57">
-        <v>0</v>
-      </c>
-      <c r="AH57" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI57">
-        <v>6</v>
-      </c>
-      <c r="AT57" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AU57">
-        <v>0.01409241781412774</v>
-      </c>
-      <c r="AV57">
-        <v>1</v>
-      </c>
-      <c r="AW57">
-        <v>1</v>
-      </c>
-      <c r="AX57">
-        <v>1</v>
-      </c>
-      <c r="AY57">
-        <v>0</v>
-      </c>
-      <c r="AZ57" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA57">
-        <v>8</v>
-      </c>
-      <c r="BL57" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="BM57">
-        <v>0.01465572958257966</v>
-      </c>
-      <c r="BN57">
-        <v>1</v>
-      </c>
-      <c r="BO57">
-        <v>1</v>
-      </c>
-      <c r="BP57">
-        <v>1</v>
-      </c>
-      <c r="BQ57">
-        <v>0</v>
-      </c>
-      <c r="BR57" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS57">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:71">
-      <c r="J58" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K58">
-        <v>0.007967554351457209</v>
-      </c>
-      <c r="L58">
-        <v>1</v>
-      </c>
-      <c r="M58">
-        <v>1</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>8</v>
-      </c>
-      <c r="AB58" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC58">
-        <v>0.01285698137998381</v>
-      </c>
-      <c r="AD58">
-        <v>1</v>
-      </c>
-      <c r="AE58">
-        <v>1</v>
-      </c>
-      <c r="AF58">
-        <v>1</v>
-      </c>
-      <c r="AG58">
-        <v>0</v>
-      </c>
-      <c r="AH58" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI58">
-        <v>8</v>
-      </c>
-      <c r="AT58" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AU58">
-        <v>0.01402747579655111</v>
-      </c>
-      <c r="AV58">
-        <v>1</v>
-      </c>
-      <c r="AW58">
-        <v>1</v>
-      </c>
-      <c r="AX58">
-        <v>1</v>
-      </c>
-      <c r="AY58">
-        <v>0</v>
-      </c>
-      <c r="AZ58" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA58">
-        <v>10</v>
-      </c>
-      <c r="BL58" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="BM58">
-        <v>0.01458819165823597</v>
-      </c>
-      <c r="BN58">
-        <v>1</v>
-      </c>
-      <c r="BO58">
-        <v>1</v>
-      </c>
-      <c r="BP58">
-        <v>1</v>
-      </c>
-      <c r="BQ58">
-        <v>0</v>
-      </c>
-      <c r="BR58" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS58">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:71">
-      <c r="J59" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K59">
-        <v>0.007930837511127914</v>
-      </c>
-      <c r="L59">
-        <v>1</v>
-      </c>
-      <c r="M59">
-        <v>1</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>10</v>
-      </c>
-      <c r="AB59" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC59">
-        <v>0.01279773261786407</v>
-      </c>
-      <c r="AD59">
-        <v>1</v>
-      </c>
-      <c r="AE59">
-        <v>1</v>
-      </c>
-      <c r="AF59">
-        <v>1</v>
-      </c>
-      <c r="AG59">
-        <v>0</v>
-      </c>
-      <c r="AH59" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI59">
-        <v>10</v>
-      </c>
-      <c r="AT59" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AU59">
-        <v>0.01386512075260955</v>
-      </c>
-      <c r="AV59">
-        <v>1</v>
-      </c>
-      <c r="AW59">
-        <v>1</v>
-      </c>
-      <c r="AX59">
-        <v>1</v>
-      </c>
-      <c r="AY59">
-        <v>0</v>
-      </c>
-      <c r="AZ59" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA59">
-        <v>15</v>
-      </c>
-      <c r="BL59" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="BM59">
-        <v>0.01441934684737676</v>
-      </c>
-      <c r="BN59">
-        <v>1</v>
-      </c>
-      <c r="BO59">
-        <v>1</v>
-      </c>
-      <c r="BP59">
-        <v>1</v>
-      </c>
-      <c r="BQ59">
-        <v>0</v>
-      </c>
-      <c r="BR59" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS59">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:71">
-      <c r="J60" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K60">
-        <v>0.007839045410304673</v>
-      </c>
-      <c r="L60">
-        <v>1</v>
-      </c>
-      <c r="M60">
-        <v>1</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>15</v>
-      </c>
-      <c r="AB60" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC60">
-        <v>0.01264961071256472</v>
-      </c>
-      <c r="AD60">
-        <v>1</v>
-      </c>
-      <c r="AE60">
-        <v>1</v>
-      </c>
-      <c r="AF60">
-        <v>1</v>
-      </c>
-      <c r="AG60">
-        <v>0</v>
-      </c>
-      <c r="AH60" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI60">
-        <v>15</v>
-      </c>
-      <c r="AT60" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AU60">
-        <v>0.01386512075260955</v>
-      </c>
-      <c r="AV60">
-        <v>1</v>
-      </c>
-      <c r="AW60">
-        <v>1</v>
-      </c>
-      <c r="AX60">
-        <v>1</v>
-      </c>
-      <c r="AY60">
-        <v>0</v>
-      </c>
-      <c r="AZ60" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA60">
-        <v>15</v>
-      </c>
-      <c r="BL60" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="BM60">
-        <v>0.01441934684737676</v>
-      </c>
-      <c r="BN60">
-        <v>1</v>
-      </c>
-      <c r="BO60">
-        <v>1</v>
-      </c>
-      <c r="BP60">
-        <v>1</v>
-      </c>
-      <c r="BQ60">
-        <v>0</v>
-      </c>
-      <c r="BR60" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS60">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:71">
-      <c r="J61" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K61">
-        <v>0.007839045410304673</v>
-      </c>
-      <c r="L61">
-        <v>1</v>
-      </c>
-      <c r="M61">
-        <v>1</v>
-      </c>
-      <c r="N61">
-        <v>1</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>15</v>
-      </c>
-      <c r="AB61" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC61">
-        <v>0.01264961071256472</v>
-      </c>
-      <c r="AD61">
-        <v>1</v>
-      </c>
-      <c r="AE61">
-        <v>1</v>
-      </c>
-      <c r="AF61">
-        <v>1</v>
-      </c>
-      <c r="AG61">
-        <v>0</v>
-      </c>
-      <c r="AH61" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI61">
-        <v>15</v>
-      </c>
-      <c r="AT61" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AU61">
-        <v>0.01383264974382123</v>
-      </c>
-      <c r="AV61">
-        <v>1</v>
-      </c>
-      <c r="AW61">
-        <v>1</v>
-      </c>
-      <c r="AX61">
-        <v>1</v>
-      </c>
-      <c r="AY61">
-        <v>0</v>
-      </c>
-      <c r="AZ61" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA61">
-        <v>16</v>
-      </c>
-      <c r="BL61" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BM61">
-        <v>0.01438557788520492</v>
-      </c>
-      <c r="BN61">
-        <v>1</v>
-      </c>
-      <c r="BO61">
-        <v>1</v>
-      </c>
-      <c r="BP61">
-        <v>1</v>
-      </c>
-      <c r="BQ61">
-        <v>0</v>
-      </c>
-      <c r="BR61" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS61">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" spans="1:71">
-      <c r="J62" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K62">
-        <v>0.007820686990140024</v>
-      </c>
-      <c r="L62">
-        <v>1</v>
-      </c>
-      <c r="M62">
-        <v>1</v>
-      </c>
-      <c r="N62">
-        <v>1</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>16</v>
-      </c>
-      <c r="AB62" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC62">
-        <v>0.01261998633150485</v>
-      </c>
-      <c r="AD62">
-        <v>1</v>
-      </c>
-      <c r="AE62">
-        <v>1</v>
-      </c>
-      <c r="AF62">
-        <v>1</v>
-      </c>
-      <c r="AG62">
-        <v>0</v>
-      </c>
-      <c r="AH62" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI62">
-        <v>16</v>
-      </c>
-      <c r="AT62" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU62">
-        <v>0.01363782369109136</v>
-      </c>
-      <c r="AV62">
-        <v>1</v>
-      </c>
-      <c r="AW62">
-        <v>1</v>
-      </c>
-      <c r="AX62">
-        <v>1</v>
-      </c>
-      <c r="AY62">
-        <v>0</v>
-      </c>
-      <c r="AZ62" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA62">
-        <v>22</v>
-      </c>
-      <c r="BL62" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BM62">
-        <v>0.01418296411217386</v>
-      </c>
-      <c r="BN62">
-        <v>1</v>
-      </c>
-      <c r="BO62">
-        <v>1</v>
-      </c>
-      <c r="BP62">
-        <v>1</v>
-      </c>
-      <c r="BQ62">
-        <v>0</v>
-      </c>
-      <c r="BR62" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS62">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="63" spans="1:71">
-      <c r="J63" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K63">
-        <v>0.007710536469152137</v>
-      </c>
-      <c r="L63">
-        <v>1</v>
-      </c>
-      <c r="M63">
-        <v>1</v>
-      </c>
-      <c r="N63">
-        <v>1</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>22</v>
-      </c>
-      <c r="AB63" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC63">
-        <v>0.01244224004514562</v>
-      </c>
-      <c r="AD63">
-        <v>1</v>
-      </c>
-      <c r="AE63">
-        <v>1</v>
-      </c>
-      <c r="AF63">
-        <v>1</v>
-      </c>
-      <c r="AG63">
-        <v>0</v>
-      </c>
-      <c r="AH63" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI63">
-        <v>22</v>
-      </c>
-      <c r="AT63" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU63">
-        <v>0.01218377648022174</v>
-      </c>
-      <c r="AV63">
-        <v>10</v>
-      </c>
-      <c r="AW63">
-        <v>10</v>
-      </c>
-      <c r="AX63">
-        <v>1</v>
-      </c>
-      <c r="AY63">
-        <v>0</v>
-      </c>
-      <c r="AZ63" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA63">
-        <v>282</v>
-      </c>
-      <c r="BL63" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BM63">
-        <v>0.01202175053317594</v>
-      </c>
-      <c r="BN63">
-        <v>1</v>
-      </c>
-      <c r="BO63">
-        <v>1</v>
-      </c>
-      <c r="BP63">
-        <v>1</v>
-      </c>
-      <c r="BQ63">
-        <v>0</v>
-      </c>
-      <c r="BR63" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS63">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="64" spans="1:71">
-      <c r="J64" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K64">
-        <v>0.006535597578614668</v>
-      </c>
-      <c r="L64">
-        <v>1</v>
-      </c>
-      <c r="M64">
-        <v>1</v>
-      </c>
-      <c r="N64">
-        <v>1</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>86</v>
-      </c>
-      <c r="AB64" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC64">
-        <v>0.01054627965731391</v>
-      </c>
-      <c r="AD64">
-        <v>1</v>
-      </c>
-      <c r="AE64">
-        <v>1</v>
-      </c>
-      <c r="AF64">
-        <v>1</v>
-      </c>
-      <c r="AG64">
-        <v>0</v>
-      </c>
-      <c r="AH64" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI64">
-        <v>86</v>
-      </c>
-      <c r="AT64" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AU64">
-        <v>0.01155967912863934</v>
-      </c>
-      <c r="AV64">
-        <v>1</v>
-      </c>
-      <c r="AW64">
-        <v>1</v>
-      </c>
-      <c r="AX64">
-        <v>1</v>
-      </c>
-      <c r="AY64">
-        <v>0</v>
-      </c>
-      <c r="AZ64" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA64">
-        <v>86</v>
-      </c>
-      <c r="BL64" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM64">
-        <v>0.01049046649606883</v>
-      </c>
-      <c r="BN64">
-        <v>10</v>
-      </c>
-      <c r="BO64">
-        <v>10</v>
-      </c>
-      <c r="BP64">
-        <v>1</v>
-      </c>
-      <c r="BQ64">
-        <v>0</v>
-      </c>
-      <c r="BR64" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS64">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="65" spans="10:71">
-      <c r="J65" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>1</v>
-      </c>
-      <c r="M65">
-        <v>1</v>
-      </c>
-      <c r="N65">
-        <v>1</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>442</v>
-      </c>
-      <c r="AB65" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC65">
-        <v>0</v>
-      </c>
-      <c r="AD65">
-        <v>1</v>
-      </c>
-      <c r="AE65">
-        <v>1</v>
-      </c>
-      <c r="AF65">
-        <v>1</v>
-      </c>
-      <c r="AG65">
-        <v>0</v>
-      </c>
-      <c r="AH65" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI65">
-        <v>442</v>
-      </c>
-      <c r="AT65" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AU65">
-        <v>0</v>
-      </c>
-      <c r="AV65">
-        <v>1</v>
-      </c>
-      <c r="AW65">
-        <v>1</v>
-      </c>
-      <c r="AX65">
-        <v>1</v>
-      </c>
-      <c r="AY65">
-        <v>0</v>
-      </c>
-      <c r="AZ65" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA65">
-        <v>442</v>
-      </c>
-      <c r="BL65" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="BM65">
-        <v>0</v>
-      </c>
-      <c r="BN65">
-        <v>1</v>
-      </c>
-      <c r="BO65">
-        <v>1</v>
-      </c>
-      <c r="BP65">
-        <v>1</v>
-      </c>
-      <c r="BQ65">
-        <v>0</v>
-      </c>
-      <c r="BR65" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS65">
-        <v>442</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
